--- a/src/test/data/cell_format_2010_custom.xlsx
+++ b/src/test/data/cell_format_2010_custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -20,16 +20,19 @@
     <sheet name="書式（文字列）" sheetId="13" r:id="rId11"/>
     <sheet name="書式（その他）" sheetId="14" r:id="rId12"/>
     <sheet name="書式（ユーザ定義）" sheetId="15" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId14"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="17" r:id="rId16"/>
+    <sheet name="結合セル" sheetId="19" r:id="rId14"/>
+    <sheet name="エラー" sheetId="18" r:id="rId15"/>
+    <sheet name="エラー (空)" sheetId="20" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId17"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId18"/>
+    <sheet name="Sheet16" sheetId="17" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="289">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -1358,13 +1361,338 @@
   </si>
   <si>
     <t>接頭語： TRUE</t>
+  </si>
+  <si>
+    <t>POICellFormatterのテスト用シート</t>
+    <rPh sb="20" eb="21">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テストケース</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テスト結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>インデックス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フォーマット</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エラー用のテスト</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロ除算</t>
+    <rPh sb="1" eb="3">
+      <t>ジョザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#DIV/0!</t>
+  </si>
+  <si>
+    <t>計算や処理の対象となるデータがない、または正当な結果が得られない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#N/A</t>
+  </si>
+  <si>
+    <t>エラーコードと種類</t>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excelの関数では利用できない名前が使用されている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#NAME?</t>
+  </si>
+  <si>
+    <t>https://poi.apache.org/apidocs/constant-values.html#org.apache.poi.ss.usermodel.ErrorConstants.ERROR_DIV_0</t>
+  </si>
+  <si>
+    <t>半角空白文字の参照演算子で指定した2つのセル範囲に、共通部分がない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#NULL!</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/19711603/apache-poi-xlsx-read-cell-with-value-error-unexpected-cell-type5</t>
+  </si>
+  <si>
+    <t>数値の指定が不適切、または正当な結果が得られない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#NUM!</t>
+  </si>
+  <si>
+    <t>数式内で無効なセルが参照されている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#REF!</t>
+  </si>
+  <si>
+    <t>コード値</t>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示文字</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数の引数の形式が間違っている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#VALUE!</t>
+  </si>
+  <si>
+    <t>正しくない参照演算子または正しくないセル参照を使っている</t>
+  </si>
+  <si>
+    <t>0除算</t>
+  </si>
+  <si>
+    <t>文字列が正しいデータ型に変換されない</t>
+  </si>
+  <si>
+    <t>数式が参照しているセルがない</t>
+  </si>
+  <si>
+    <t>数式が参照している名称がない</t>
+  </si>
+  <si>
+    <t>※1 POIの場合、xlsの古い形式の場合、全て「#VALUE!」となる。</t>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式または関数の数値が不適切</t>
+  </si>
+  <si>
+    <t>　　　xlsxの形式だと種類ごとに値が取得できる。</t>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数や数式に使用できる値がない</t>
+  </si>
+  <si>
+    <t>※2 POIの場合、「#NUM!」の場合、「=DATE(50000,1,1)」でも正常に計算ができる。</t>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      Javaの日付の表示範囲がExcelよりも広いため。</t>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーの発生のさせ方</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://dekiru.net/article/4471/</t>
+  </si>
+  <si>
+    <t>http://allabout.co.jp/gm/gc/50041/</t>
+  </si>
+  <si>
+    <t>結合セルのテスト</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(1)全て空</t>
+    <rPh sb="3" eb="4">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(2)左上に値（文字列）</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(3)左上に値（日付）</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(4)右下に値（文字列）</t>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(5)右下に値（日付）</t>
+    <rPh sb="3" eb="5">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テスト結果が空の場合</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="81">
+  <numFmts count="83">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -1446,8 +1774,10 @@
     <numFmt numFmtId="249" formatCode="??/201"/>
     <numFmt numFmtId="250" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="251" formatCode="&quot;接頭語：&quot;\ @"/>
+    <numFmt numFmtId="252" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="253" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1471,8 +1801,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1482,6 +1826,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,10 +1860,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1631,9 +1982,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="250" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="251" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="252" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="205" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="206" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="253" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3244,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3875,18 +4252,938 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="110"/>
+    <col min="2" max="2" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="4" max="257" width="9" style="110"/>
+    <col min="258" max="258" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="260" max="513" width="9" style="110"/>
+    <col min="514" max="514" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="516" max="769" width="9" style="110"/>
+    <col min="770" max="770" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="772" max="1025" width="9" style="110"/>
+    <col min="1026" max="1026" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1281" width="9" style="110"/>
+    <col min="1282" max="1282" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1537" width="9" style="110"/>
+    <col min="1538" max="1538" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1793" width="9" style="110"/>
+    <col min="1794" max="1794" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="1796" max="2049" width="9" style="110"/>
+    <col min="2050" max="2050" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2305" width="9" style="110"/>
+    <col min="2306" max="2306" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2561" width="9" style="110"/>
+    <col min="2562" max="2562" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2817" width="9" style="110"/>
+    <col min="2818" max="2818" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="2820" max="3073" width="9" style="110"/>
+    <col min="3074" max="3074" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3329" width="9" style="110"/>
+    <col min="3330" max="3330" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3585" width="9" style="110"/>
+    <col min="3586" max="3586" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3841" width="9" style="110"/>
+    <col min="3842" max="3842" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="3844" max="4097" width="9" style="110"/>
+    <col min="4098" max="4098" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4353" width="9" style="110"/>
+    <col min="4354" max="4354" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4609" width="9" style="110"/>
+    <col min="4610" max="4610" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4865" width="9" style="110"/>
+    <col min="4866" max="4866" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="4868" max="5121" width="9" style="110"/>
+    <col min="5122" max="5122" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5377" width="9" style="110"/>
+    <col min="5378" max="5378" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5633" width="9" style="110"/>
+    <col min="5634" max="5634" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5889" width="9" style="110"/>
+    <col min="5890" max="5890" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="5892" max="6145" width="9" style="110"/>
+    <col min="6146" max="6146" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6401" width="9" style="110"/>
+    <col min="6402" max="6402" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6657" width="9" style="110"/>
+    <col min="6658" max="6658" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6913" width="9" style="110"/>
+    <col min="6914" max="6914" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="6916" max="7169" width="9" style="110"/>
+    <col min="7170" max="7170" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7425" width="9" style="110"/>
+    <col min="7426" max="7426" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7681" width="9" style="110"/>
+    <col min="7682" max="7682" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7937" width="9" style="110"/>
+    <col min="7938" max="7938" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="7940" max="8193" width="9" style="110"/>
+    <col min="8194" max="8194" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8449" width="9" style="110"/>
+    <col min="8450" max="8450" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8705" width="9" style="110"/>
+    <col min="8706" max="8706" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8961" width="9" style="110"/>
+    <col min="8962" max="8962" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="8964" max="9217" width="9" style="110"/>
+    <col min="9218" max="9218" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9473" width="9" style="110"/>
+    <col min="9474" max="9474" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9729" width="9" style="110"/>
+    <col min="9730" max="9730" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9985" width="9" style="110"/>
+    <col min="9986" max="9986" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="9988" max="10241" width="9" style="110"/>
+    <col min="10242" max="10242" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10497" width="9" style="110"/>
+    <col min="10498" max="10498" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10753" width="9" style="110"/>
+    <col min="10754" max="10754" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="10756" max="11009" width="9" style="110"/>
+    <col min="11010" max="11010" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11265" width="9" style="110"/>
+    <col min="11266" max="11266" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11521" width="9" style="110"/>
+    <col min="11522" max="11522" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11777" width="9" style="110"/>
+    <col min="11778" max="11778" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="11780" max="12033" width="9" style="110"/>
+    <col min="12034" max="12034" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12289" width="9" style="110"/>
+    <col min="12290" max="12290" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12545" width="9" style="110"/>
+    <col min="12546" max="12546" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12801" width="9" style="110"/>
+    <col min="12802" max="12802" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="12804" max="13057" width="9" style="110"/>
+    <col min="13058" max="13058" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13313" width="9" style="110"/>
+    <col min="13314" max="13314" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13569" width="9" style="110"/>
+    <col min="13570" max="13570" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13825" width="9" style="110"/>
+    <col min="13826" max="13826" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="13828" max="14081" width="9" style="110"/>
+    <col min="14082" max="14082" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14337" width="9" style="110"/>
+    <col min="14338" max="14338" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14593" width="9" style="110"/>
+    <col min="14594" max="14594" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14849" width="9" style="110"/>
+    <col min="14850" max="14850" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="14852" max="15105" width="9" style="110"/>
+    <col min="15106" max="15106" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15361" width="9" style="110"/>
+    <col min="15362" max="15362" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15617" width="9" style="110"/>
+    <col min="15618" max="15618" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15873" width="9" style="110"/>
+    <col min="15874" max="15874" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="15876" max="16129" width="9" style="110"/>
+    <col min="16130" max="16130" width="15.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.625" style="110" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16384" width="9" style="110"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="109" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="110" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="110" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="127" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="127"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="110" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="128">
+        <v>41935</v>
+      </c>
+      <c r="C12" s="128"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="110" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="127" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="127"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="110" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="129">
+        <v>41935</v>
+      </c>
+      <c r="C20" s="129"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="B20:C21"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.625" style="110" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="110" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="110" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="111" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="110" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="110" customWidth="1"/>
+    <col min="7" max="8" width="9" style="110"/>
+    <col min="9" max="9" width="11.375" style="110" customWidth="1"/>
+    <col min="10" max="10" width="30" style="110" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="110"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="109" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="111" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="115">
+        <v>1</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="117" t="e">
+        <f>200/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="115">
+        <v>2</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="121" t="e">
+        <f>MODE(10,20,30,40)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="119"/>
+      <c r="F5" s="120"/>
+      <c r="H5" s="110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="115">
+        <v>3</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="121" t="e">
+        <f ca="1">HEIKIN(A1:C1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="118" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="119"/>
+      <c r="F6" s="120"/>
+      <c r="H6" s="110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="115">
+        <v>4</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="121" t="e">
+        <f>SUM(A1:A3 C1:C3)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="119"/>
+      <c r="F7" s="120"/>
+      <c r="H7" s="110" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="115">
+        <v>5</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="121" t="e">
+        <f>SMALL(A1:A3,C1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="119"/>
+      <c r="F8" s="120"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="115">
+        <v>6</v>
+      </c>
+      <c r="B9" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="121" t="e">
+        <f>INT(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="H9" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>264</v>
+      </c>
+      <c r="J9" s="122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="115">
+        <v>7</v>
+      </c>
+      <c r="B10" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="121" t="e">
+        <f>MAX("Dekiru")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="118" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="H10" s="119">
+        <v>0</v>
+      </c>
+      <c r="I10" s="119" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="J10" s="119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="115">
+        <v>8</v>
+      </c>
+      <c r="B11" s="116"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="H11" s="119">
+        <v>7</v>
+      </c>
+      <c r="I11" s="119" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="119" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="115">
+        <v>9</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="H12" s="119">
+        <v>15</v>
+      </c>
+      <c r="I12" s="119" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="119" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="115">
+        <v>10</v>
+      </c>
+      <c r="B13" s="116"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="H13" s="119">
+        <v>23</v>
+      </c>
+      <c r="I13" s="119" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H14" s="119">
+        <v>29</v>
+      </c>
+      <c r="I14" s="119" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="J14" s="119" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" s="119">
+        <v>36</v>
+      </c>
+      <c r="I15" s="119" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J15" s="119" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="110" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="119">
+        <v>42</v>
+      </c>
+      <c r="I16" s="119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="119" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="125" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="110" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="110" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="110" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.625" style="126" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="126" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="126" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="111" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="126" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="126" customWidth="1"/>
+    <col min="7" max="8" width="9" style="126"/>
+    <col min="9" max="9" width="11.375" style="126" customWidth="1"/>
+    <col min="10" max="10" width="30" style="126" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="126"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="109" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="126" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="111" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="115">
+        <v>1</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="117" t="e">
+        <f>200/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="115">
+        <v>2</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="121" t="e">
+        <f>MODE(10,20,30,40)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="120"/>
+      <c r="H5" s="126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="115">
+        <v>3</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="121" t="e">
+        <f ca="1">HEIKIN(A1:C1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="120"/>
+      <c r="H6" s="126" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="115">
+        <v>4</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="121" t="e">
+        <f>SUM(A1:A3 C1:C3)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="120"/>
+      <c r="H7" s="126" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="115">
+        <v>5</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="121" t="e">
+        <f>SMALL(A1:A3,C1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="120"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="115">
+        <v>6</v>
+      </c>
+      <c r="B9" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="121" t="e">
+        <f>INT(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="H9" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>264</v>
+      </c>
+      <c r="J9" s="122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="115">
+        <v>7</v>
+      </c>
+      <c r="B10" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="121" t="e">
+        <f>MAX("Dekiru")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="H10" s="119">
+        <v>0</v>
+      </c>
+      <c r="I10" s="119" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="J10" s="119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="115">
+        <v>8</v>
+      </c>
+      <c r="B11" s="116"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="H11" s="119">
+        <v>7</v>
+      </c>
+      <c r="I11" s="119" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="119" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="115">
+        <v>9</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="H12" s="119">
+        <v>15</v>
+      </c>
+      <c r="I12" s="119" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="119" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="115">
+        <v>10</v>
+      </c>
+      <c r="B13" s="116"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="H13" s="119">
+        <v>23</v>
+      </c>
+      <c r="I13" s="119" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H14" s="119">
+        <v>29</v>
+      </c>
+      <c r="I14" s="119" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="J14" s="119" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="126" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" s="119">
+        <v>36</v>
+      </c>
+      <c r="I15" s="119" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J15" s="119" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="126" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="119">
+        <v>42</v>
+      </c>
+      <c r="I16" s="119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="119" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="126" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="125" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="126" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="126" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="126" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3899,7 +5196,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/data/cell_format_2010_custom.xlsx
+++ b/src/test/data/cell_format_2010_custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="297">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -1684,6 +1684,58 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元号がないロケール</t>
+    <rPh sb="0" eb="1">
+      <t>ゲンゴウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[$-409]yyyy/m/d (ddd)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[DBNum1][$-409]yyyy/m/d (ddd)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB定義がないロケール（日付）</t>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB定義がないロケール（数値）</t>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1234567.89</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[DBNum1][$-409]#.##</t>
+  </si>
+  <si>
+    <t>DBがないロケール（日付）</t>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1692,7 +1744,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="83">
+  <numFmts count="84">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -1700,7 +1752,6 @@
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0;&quot;▲ &quot;0"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0;&quot;△ &quot;#,##0.0"/>
     <numFmt numFmtId="179" formatCode="#,##0.0;&quot;▲ &quot;#,##0.0"/>
     <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="181" formatCode="&quot;¥&quot;#,##0.0_);[Red]\(&quot;¥&quot;#,##0.0\)"/>
@@ -1716,7 +1767,6 @@
     <numFmt numFmtId="191" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="192" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="193" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="194" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="195" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="196" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="197" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
@@ -1776,6 +1826,9 @@
     <numFmt numFmtId="251" formatCode="&quot;接頭語：&quot;\ @"/>
     <numFmt numFmtId="252" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="253" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="254" formatCode="[$-409]yyyy/m/d\ \(ddd\)"/>
+    <numFmt numFmtId="255" formatCode="[DBNum1][$-409]yyyy/m/d\ \(ddd\)"/>
+    <numFmt numFmtId="256" formatCode="[DBNum1][$-409]#.##"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1864,7 +1917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1880,7 +1933,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -1901,7 +1953,6 @@
     <xf numFmtId="191" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="192" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="193" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="195" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="196" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="197" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2007,6 +2058,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="253" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="254" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="255" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="256" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3364,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3373,7 +3427,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="55" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
@@ -3393,7 +3447,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="56" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3408,36 +3462,54 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>239</v>
+        <v>289</v>
+      </c>
+      <c r="C4" s="128">
+        <v>42070</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>159</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="40" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="129">
+        <v>42070</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>159</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="40" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="59"/>
+      <c r="B6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="130">
+        <v>1234567.8899999999</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>294</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="40" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
@@ -3445,9 +3517,9 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="60"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
@@ -3455,9 +3527,9 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="60"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
@@ -3465,9 +3537,9 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="59"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
@@ -3475,9 +3547,9 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="59"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
@@ -3485,9 +3557,9 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="59"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
@@ -3495,9 +3567,9 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="59"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
@@ -3505,9 +3577,9 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="59"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="42"/>
+      <c r="F13" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3564,50 +3636,50 @@
         <v>1</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="39"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="7"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="40"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="7"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="41"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="7"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="41"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="7"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="37"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="7"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
+      <c r="F8" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3667,14 +3739,14 @@
       <c r="B4" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>233</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="40" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3685,14 +3757,14 @@
       <c r="B5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="106" t="s">
         <v>234</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>235</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
@@ -3701,44 +3773,44 @@
       <c r="B6" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="108" t="b">
+      <c r="C6" s="106" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>239</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="108"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="7"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="42"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="7"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="42"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="7"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
+      <c r="F9" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3796,200 +3868,200 @@
         <v>1</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="43"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="7"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="45"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="7"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="45"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="7"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="44"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="7"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="44"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="7"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="44"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="7"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="46"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="7"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="46"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="7"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="7"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="47"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="7"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="42"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="47"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="7"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="42"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="47"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="7"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="42"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="48"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="42"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="48"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="7"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="42"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="48"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="7"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="42"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="7"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="49"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="7"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="43"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="7"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="42"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="43"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="7"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
+      <c r="F23" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4012,7 +4084,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="55" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
@@ -4032,7 +4104,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="56" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -4047,200 +4119,200 @@
         <v>1</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="59"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="59"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="59"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="42"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="42"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="42"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="42"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="42"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="59"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="42"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="59"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="59"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="42"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="59"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
+      <c r="F23" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4260,278 +4332,278 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="110"/>
-    <col min="2" max="2" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="257" width="9" style="110"/>
-    <col min="258" max="258" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="260" max="513" width="9" style="110"/>
-    <col min="514" max="514" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="516" max="769" width="9" style="110"/>
-    <col min="770" max="770" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="772" max="1025" width="9" style="110"/>
-    <col min="1026" max="1026" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1281" width="9" style="110"/>
-    <col min="1282" max="1282" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1537" width="9" style="110"/>
-    <col min="1538" max="1538" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1793" width="9" style="110"/>
-    <col min="1794" max="1794" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="1796" max="2049" width="9" style="110"/>
-    <col min="2050" max="2050" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2305" width="9" style="110"/>
-    <col min="2306" max="2306" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2561" width="9" style="110"/>
-    <col min="2562" max="2562" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2817" width="9" style="110"/>
-    <col min="2818" max="2818" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="2820" max="3073" width="9" style="110"/>
-    <col min="3074" max="3074" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3329" width="9" style="110"/>
-    <col min="3330" max="3330" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3585" width="9" style="110"/>
-    <col min="3586" max="3586" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3841" width="9" style="110"/>
-    <col min="3842" max="3842" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3844" max="4097" width="9" style="110"/>
-    <col min="4098" max="4098" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4353" width="9" style="110"/>
-    <col min="4354" max="4354" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4609" width="9" style="110"/>
-    <col min="4610" max="4610" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4865" width="9" style="110"/>
-    <col min="4866" max="4866" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="4868" max="5121" width="9" style="110"/>
-    <col min="5122" max="5122" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5377" width="9" style="110"/>
-    <col min="5378" max="5378" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5633" width="9" style="110"/>
-    <col min="5634" max="5634" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5889" width="9" style="110"/>
-    <col min="5890" max="5890" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="5892" max="6145" width="9" style="110"/>
-    <col min="6146" max="6146" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6401" width="9" style="110"/>
-    <col min="6402" max="6402" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6657" width="9" style="110"/>
-    <col min="6658" max="6658" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6913" width="9" style="110"/>
-    <col min="6914" max="6914" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="6916" max="7169" width="9" style="110"/>
-    <col min="7170" max="7170" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7425" width="9" style="110"/>
-    <col min="7426" max="7426" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7681" width="9" style="110"/>
-    <col min="7682" max="7682" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7937" width="9" style="110"/>
-    <col min="7938" max="7938" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="7940" max="8193" width="9" style="110"/>
-    <col min="8194" max="8194" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8449" width="9" style="110"/>
-    <col min="8450" max="8450" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8705" width="9" style="110"/>
-    <col min="8706" max="8706" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8961" width="9" style="110"/>
-    <col min="8962" max="8962" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="8964" max="9217" width="9" style="110"/>
-    <col min="9218" max="9218" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9473" width="9" style="110"/>
-    <col min="9474" max="9474" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9729" width="9" style="110"/>
-    <col min="9730" max="9730" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9985" width="9" style="110"/>
-    <col min="9986" max="9986" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="9988" max="10241" width="9" style="110"/>
-    <col min="10242" max="10242" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10497" width="9" style="110"/>
-    <col min="10498" max="10498" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10753" width="9" style="110"/>
-    <col min="10754" max="10754" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="10756" max="11009" width="9" style="110"/>
-    <col min="11010" max="11010" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11265" width="9" style="110"/>
-    <col min="11266" max="11266" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11521" width="9" style="110"/>
-    <col min="11522" max="11522" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11777" width="9" style="110"/>
-    <col min="11778" max="11778" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="11780" max="12033" width="9" style="110"/>
-    <col min="12034" max="12034" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12289" width="9" style="110"/>
-    <col min="12290" max="12290" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12545" width="9" style="110"/>
-    <col min="12546" max="12546" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12801" width="9" style="110"/>
-    <col min="12802" max="12802" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="12804" max="13057" width="9" style="110"/>
-    <col min="13058" max="13058" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13313" width="9" style="110"/>
-    <col min="13314" max="13314" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13569" width="9" style="110"/>
-    <col min="13570" max="13570" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13825" width="9" style="110"/>
-    <col min="13826" max="13826" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="13828" max="14081" width="9" style="110"/>
-    <col min="14082" max="14082" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14337" width="9" style="110"/>
-    <col min="14338" max="14338" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14593" width="9" style="110"/>
-    <col min="14594" max="14594" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14849" width="9" style="110"/>
-    <col min="14850" max="14850" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="14852" max="15105" width="9" style="110"/>
-    <col min="15106" max="15106" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15361" width="9" style="110"/>
-    <col min="15362" max="15362" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15617" width="9" style="110"/>
-    <col min="15618" max="15618" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15873" width="9" style="110"/>
-    <col min="15874" max="15874" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="15876" max="16129" width="9" style="110"/>
-    <col min="16130" max="16130" width="15.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="11.625" style="110" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16384" width="9" style="110"/>
+    <col min="1" max="1" width="9" style="108"/>
+    <col min="2" max="2" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="4" max="257" width="9" style="108"/>
+    <col min="258" max="258" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="260" max="513" width="9" style="108"/>
+    <col min="514" max="514" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="516" max="769" width="9" style="108"/>
+    <col min="770" max="770" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="772" max="1025" width="9" style="108"/>
+    <col min="1026" max="1026" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1281" width="9" style="108"/>
+    <col min="1282" max="1282" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1537" width="9" style="108"/>
+    <col min="1538" max="1538" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1793" width="9" style="108"/>
+    <col min="1794" max="1794" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1796" max="2049" width="9" style="108"/>
+    <col min="2050" max="2050" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2305" width="9" style="108"/>
+    <col min="2306" max="2306" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2561" width="9" style="108"/>
+    <col min="2562" max="2562" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2817" width="9" style="108"/>
+    <col min="2818" max="2818" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="2820" max="3073" width="9" style="108"/>
+    <col min="3074" max="3074" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3329" width="9" style="108"/>
+    <col min="3330" max="3330" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3585" width="9" style="108"/>
+    <col min="3586" max="3586" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3841" width="9" style="108"/>
+    <col min="3842" max="3842" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="3844" max="4097" width="9" style="108"/>
+    <col min="4098" max="4098" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4353" width="9" style="108"/>
+    <col min="4354" max="4354" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4609" width="9" style="108"/>
+    <col min="4610" max="4610" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4865" width="9" style="108"/>
+    <col min="4866" max="4866" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="4868" max="5121" width="9" style="108"/>
+    <col min="5122" max="5122" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5377" width="9" style="108"/>
+    <col min="5378" max="5378" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5633" width="9" style="108"/>
+    <col min="5634" max="5634" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5889" width="9" style="108"/>
+    <col min="5890" max="5890" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="5892" max="6145" width="9" style="108"/>
+    <col min="6146" max="6146" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6401" width="9" style="108"/>
+    <col min="6402" max="6402" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6657" width="9" style="108"/>
+    <col min="6658" max="6658" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6913" width="9" style="108"/>
+    <col min="6914" max="6914" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="6916" max="7169" width="9" style="108"/>
+    <col min="7170" max="7170" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7425" width="9" style="108"/>
+    <col min="7426" max="7426" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7681" width="9" style="108"/>
+    <col min="7682" max="7682" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7937" width="9" style="108"/>
+    <col min="7938" max="7938" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="7940" max="8193" width="9" style="108"/>
+    <col min="8194" max="8194" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8449" width="9" style="108"/>
+    <col min="8450" max="8450" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8705" width="9" style="108"/>
+    <col min="8706" max="8706" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8961" width="9" style="108"/>
+    <col min="8962" max="8962" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="8964" max="9217" width="9" style="108"/>
+    <col min="9218" max="9218" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9473" width="9" style="108"/>
+    <col min="9474" max="9474" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9729" width="9" style="108"/>
+    <col min="9730" max="9730" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9985" width="9" style="108"/>
+    <col min="9986" max="9986" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="9988" max="10241" width="9" style="108"/>
+    <col min="10242" max="10242" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10497" width="9" style="108"/>
+    <col min="10498" max="10498" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10753" width="9" style="108"/>
+    <col min="10754" max="10754" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="10756" max="11009" width="9" style="108"/>
+    <col min="11010" max="11010" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11265" width="9" style="108"/>
+    <col min="11266" max="11266" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11521" width="9" style="108"/>
+    <col min="11522" max="11522" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11777" width="9" style="108"/>
+    <col min="11778" max="11778" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="11780" max="12033" width="9" style="108"/>
+    <col min="12034" max="12034" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12289" width="9" style="108"/>
+    <col min="12290" max="12290" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12545" width="9" style="108"/>
+    <col min="12546" max="12546" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12801" width="9" style="108"/>
+    <col min="12802" max="12802" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="12804" max="13057" width="9" style="108"/>
+    <col min="13058" max="13058" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13313" width="9" style="108"/>
+    <col min="13314" max="13314" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13569" width="9" style="108"/>
+    <col min="13570" max="13570" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13825" width="9" style="108"/>
+    <col min="13826" max="13826" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="13828" max="14081" width="9" style="108"/>
+    <col min="14082" max="14082" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14337" width="9" style="108"/>
+    <col min="14338" max="14338" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14593" width="9" style="108"/>
+    <col min="14594" max="14594" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14849" width="9" style="108"/>
+    <col min="14850" max="14850" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="14852" max="15105" width="9" style="108"/>
+    <col min="15106" max="15106" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15361" width="9" style="108"/>
+    <col min="15362" max="15362" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15617" width="9" style="108"/>
+    <col min="15618" max="15618" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15873" width="9" style="108"/>
+    <col min="15874" max="15874" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="15876" max="16129" width="9" style="108"/>
+    <col min="16130" max="16130" width="15.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.625" style="108" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16384" width="9" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="108" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="108" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="127"/>
+      <c r="C8" s="125"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="108" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="128">
+      <c r="B12" s="126">
         <v>41935</v>
       </c>
-      <c r="C12" s="128"/>
+      <c r="C12" s="126"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="108" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="127"/>
+      <c r="C16" s="125"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="108" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="129">
+      <c r="B20" s="127">
         <v>41935</v>
       </c>
-      <c r="C20" s="129"/>
+      <c r="C20" s="127"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4556,310 +4628,310 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="110" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="110" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="111" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="110" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="110" customWidth="1"/>
-    <col min="7" max="8" width="9" style="110"/>
-    <col min="9" max="9" width="11.375" style="110" customWidth="1"/>
-    <col min="10" max="10" width="30" style="110" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="110"/>
+    <col min="1" max="1" width="7.625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="108" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="108" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="109" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="108" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="108" customWidth="1"/>
+    <col min="7" max="8" width="9" style="108"/>
+    <col min="9" max="9" width="11.375" style="108" customWidth="1"/>
+    <col min="10" max="10" width="30" style="108" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="110" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="112" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="111" t="s">
+      <c r="H3" s="109" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="115">
+      <c r="A4" s="113">
         <v>1</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="114" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="117" t="e">
+      <c r="C4" s="115" t="e">
         <f>200/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="115">
+      <c r="A5" s="113">
         <v>2</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="121" t="e">
+      <c r="C5" s="119" t="e">
         <f>MODE(10,20,30,40)</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="119"/>
-      <c r="F5" s="120"/>
-      <c r="H5" s="110" t="s">
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
+      <c r="H5" s="108" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="115">
+      <c r="A6" s="113">
         <v>3</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="121" t="e">
+      <c r="C6" s="119" t="e">
         <f ca="1">HEIKIN(A1:C1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="120"/>
-      <c r="H6" s="110" t="s">
+      <c r="E6" s="117"/>
+      <c r="F6" s="118"/>
+      <c r="H6" s="108" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="115">
+      <c r="A7" s="113">
         <v>4</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="121" t="e">
+      <c r="C7" s="119" t="e">
         <f>SUM(A1:A3 C1:C3)</f>
         <v>#NULL!</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="116" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="120"/>
-      <c r="H7" s="110" t="s">
+      <c r="E7" s="117"/>
+      <c r="F7" s="118"/>
+      <c r="H7" s="108" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="115">
+      <c r="A8" s="113">
         <v>5</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="121" t="e">
+      <c r="C8" s="119" t="e">
         <f>SMALL(A1:A3,C1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="120"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="115">
+      <c r="A9" s="113">
         <v>6</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="121" t="e">
+      <c r="C9" s="119" t="e">
         <f>INT(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="116" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
-      <c r="H9" s="122" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="H9" s="120" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="122" t="s">
+      <c r="I9" s="120" t="s">
         <v>264</v>
       </c>
-      <c r="J9" s="122" t="s">
+      <c r="J9" s="120" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="115">
+      <c r="A10" s="113">
         <v>7</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="121" t="e">
+      <c r="C10" s="119" t="e">
         <f>MAX("Dekiru")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="H10" s="119">
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="H10" s="117">
         <v>0</v>
       </c>
-      <c r="I10" s="119" t="e">
+      <c r="I10" s="117" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="117" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="115">
+      <c r="A11" s="113">
         <v>8</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="H11" s="119">
+      <c r="B11" s="114"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="H11" s="117">
         <v>7</v>
       </c>
-      <c r="I11" s="119" t="e">
+      <c r="I11" s="117" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="119" t="s">
+      <c r="J11" s="117" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="115">
+      <c r="A12" s="113">
         <v>9</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="H12" s="119">
+      <c r="B12" s="114"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="H12" s="117">
         <v>15</v>
       </c>
-      <c r="I12" s="119" t="e">
+      <c r="I12" s="117" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="119" t="s">
+      <c r="J12" s="117" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="115">
+      <c r="A13" s="113">
         <v>10</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="H13" s="119">
+      <c r="B13" s="114"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="H13" s="117">
         <v>23</v>
       </c>
-      <c r="I13" s="119" t="e">
+      <c r="I13" s="117" t="e">
         <v>#REF!</v>
       </c>
-      <c r="J13" s="119" t="s">
+      <c r="J13" s="117" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H14" s="119">
+      <c r="H14" s="117">
         <v>29</v>
       </c>
-      <c r="I14" s="119" t="e">
+      <c r="I14" s="117" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="J14" s="119" t="s">
+      <c r="J14" s="117" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="119">
+      <c r="H15" s="117">
         <v>36</v>
       </c>
-      <c r="I15" s="119" t="e">
+      <c r="I15" s="117" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J15" s="119" t="s">
+      <c r="J15" s="117" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="119">
+      <c r="H16" s="117">
         <v>42</v>
       </c>
-      <c r="I16" s="119" t="e">
+      <c r="I16" s="117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J16" s="119" t="s">
+      <c r="J16" s="117" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="108" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="123" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H19" s="110" t="s">
+      <c r="H19" s="108" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="110" t="s">
+      <c r="H20" s="108" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="108" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4874,305 +4946,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="126" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="126" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="126" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="111" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="126" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="126" customWidth="1"/>
-    <col min="7" max="8" width="9" style="126"/>
-    <col min="9" max="9" width="11.375" style="126" customWidth="1"/>
-    <col min="10" max="10" width="30" style="126" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="126"/>
+    <col min="1" max="1" width="7.625" style="124" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="124" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="124" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="109" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="124" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="124" customWidth="1"/>
+    <col min="7" max="8" width="9" style="124"/>
+    <col min="9" max="9" width="11.375" style="124" customWidth="1"/>
+    <col min="10" max="10" width="30" style="124" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="124"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="124" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="110" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="112" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="111" t="s">
+      <c r="H3" s="109" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="115">
+      <c r="A4" s="113">
         <v>1</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="114" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="117" t="e">
+      <c r="C4" s="115" t="e">
         <f>200/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="115">
+      <c r="A5" s="113">
         <v>2</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="121" t="e">
+      <c r="C5" s="119" t="e">
         <f>MODE(10,20,30,40)</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="120"/>
-      <c r="H5" s="126" t="s">
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
+      <c r="H5" s="124" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="115">
+      <c r="A6" s="113">
         <v>3</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="121" t="e">
+      <c r="C6" s="119" t="e">
         <f ca="1">HEIKIN(A1:C1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="120"/>
-      <c r="H6" s="126" t="s">
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="118"/>
+      <c r="H6" s="124" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="115">
+      <c r="A7" s="113">
         <v>4</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="121" t="e">
+      <c r="C7" s="119" t="e">
         <f>SUM(A1:A3 C1:C3)</f>
         <v>#NULL!</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="120"/>
-      <c r="H7" s="126" t="s">
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="118"/>
+      <c r="H7" s="124" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="115">
+      <c r="A8" s="113">
         <v>5</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="121" t="e">
+      <c r="C8" s="119" t="e">
         <f>SMALL(A1:A3,C1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="120"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="115">
+      <c r="A9" s="113">
         <v>6</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="121" t="e">
+      <c r="C9" s="119" t="e">
         <f>INT(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
-      <c r="H9" s="122" t="s">
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="H9" s="120" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="122" t="s">
+      <c r="I9" s="120" t="s">
         <v>264</v>
       </c>
-      <c r="J9" s="122" t="s">
+      <c r="J9" s="120" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="115">
+      <c r="A10" s="113">
         <v>7</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="121" t="e">
+      <c r="C10" s="119" t="e">
         <f>MAX("Dekiru")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="H10" s="119">
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="H10" s="117">
         <v>0</v>
       </c>
-      <c r="I10" s="119" t="e">
+      <c r="I10" s="117" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="117" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="115">
+      <c r="A11" s="113">
         <v>8</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="H11" s="119">
+      <c r="B11" s="114"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="H11" s="117">
         <v>7</v>
       </c>
-      <c r="I11" s="119" t="e">
+      <c r="I11" s="117" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="119" t="s">
+      <c r="J11" s="117" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="115">
+      <c r="A12" s="113">
         <v>9</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="H12" s="119">
+      <c r="B12" s="114"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="H12" s="117">
         <v>15</v>
       </c>
-      <c r="I12" s="119" t="e">
+      <c r="I12" s="117" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="119" t="s">
+      <c r="J12" s="117" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="115">
+      <c r="A13" s="113">
         <v>10</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="H13" s="119">
+      <c r="B13" s="114"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="H13" s="117">
         <v>23</v>
       </c>
-      <c r="I13" s="119" t="e">
+      <c r="I13" s="117" t="e">
         <v>#REF!</v>
       </c>
-      <c r="J13" s="119" t="s">
+      <c r="J13" s="117" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H14" s="119">
+      <c r="H14" s="117">
         <v>29</v>
       </c>
-      <c r="I14" s="119" t="e">
+      <c r="I14" s="117" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="J14" s="119" t="s">
+      <c r="J14" s="117" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="124" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="119">
+      <c r="H15" s="117">
         <v>36</v>
       </c>
-      <c r="I15" s="119" t="e">
+      <c r="I15" s="117" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J15" s="119" t="s">
+      <c r="J15" s="117" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="119">
+      <c r="H16" s="117">
         <v>42</v>
       </c>
-      <c r="I16" s="119" t="e">
+      <c r="I16" s="117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J16" s="119" t="s">
+      <c r="J16" s="117" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="124" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="123" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="124" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="126" t="s">
+      <c r="H20" s="124" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="126" t="s">
+      <c r="H21" s="124" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5265,7 +5337,7 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
@@ -5275,8 +5347,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="7"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
@@ -5286,7 +5358,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="7"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="40"/>
       <c r="H5" t="s">
         <v>4</v>
       </c>
@@ -5302,7 +5374,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="7"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="40"/>
       <c r="H6">
         <v>1</v>
       </c>
@@ -5316,7 +5388,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="40"/>
       <c r="H7">
         <v>100</v>
       </c>
@@ -5327,7 +5399,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
+      <c r="F8" s="40"/>
       <c r="H8">
         <v>1000</v>
       </c>
@@ -5338,7 +5410,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
@@ -5346,7 +5418,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
@@ -5354,7 +5426,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -5362,7 +5434,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5375,8 +5447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5384,7 +5456,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="57" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="55" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="26.875" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
@@ -5406,7 +5478,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="56" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5415,7 +5487,7 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
@@ -5424,17 +5496,17 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="62">
         <v>123.456</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
@@ -5443,17 +5515,17 @@
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="62">
         <v>-123.456</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
@@ -5462,17 +5534,17 @@
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="62">
         <v>0</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="57" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
@@ -5481,17 +5553,17 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="67">
         <v>123.456</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="53"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
@@ -5500,17 +5572,17 @@
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="67">
         <v>-123.456</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="57" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
@@ -5519,17 +5591,17 @@
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="67">
         <v>0</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="57" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
@@ -5538,17 +5610,17 @@
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="63">
         <v>123456789.012345</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="57" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="53"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
@@ -5557,17 +5629,17 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="63">
         <v>-123456789.012345</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="57" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="53"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
@@ -5576,17 +5648,17 @@
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="64">
         <v>123.45789000000001</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="57" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="53"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
@@ -5595,17 +5667,17 @@
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="64">
         <v>-123.45789000000001</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="57" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
@@ -5614,17 +5686,17 @@
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="65">
         <v>12345789.012344999</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="57" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="53"/>
+      <c r="G14" s="51"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
@@ -5633,17 +5705,17 @@
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="65">
         <v>-12345789.012344999</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="57" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
@@ -5652,17 +5724,17 @@
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="66">
         <v>12345789.012344999</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="57" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="53"/>
+      <c r="G16" s="51"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
@@ -5671,14 +5743,14 @@
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="66">
         <v>-12345789.012344999</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="57" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="40" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5689,14 +5761,14 @@
       <c r="B18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="68">
         <v>99.9</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="57" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="40" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5707,17 +5779,17 @@
       <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="68">
         <v>100</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="57" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
@@ -5726,17 +5798,17 @@
       <c r="B20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="68">
         <v>100.1</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="57" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="53"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
@@ -5745,17 +5817,17 @@
       <c r="B21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="71">
         <v>99</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="57" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="53"/>
+      <c r="G21" s="51"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
@@ -5764,17 +5836,17 @@
       <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="71">
         <v>100</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="57" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="53"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
@@ -5783,17 +5855,17 @@
       <c r="B23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="69">
         <v>99</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="57" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="53"/>
+      <c r="G23" s="51"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
@@ -5802,17 +5874,17 @@
       <c r="B24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="69">
         <v>100</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="57" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="51"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
@@ -5821,17 +5893,17 @@
       <c r="B25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="70">
         <v>100</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="57" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="51"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
@@ -5840,28 +5912,36 @@
       <c r="B26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="70">
         <v>100.1</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="57" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="130">
+        <v>1234567.8899999999</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>294</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="53"/>
+      <c r="F27" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
@@ -5869,10 +5949,10 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="59"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="53"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
@@ -5880,21 +5960,21 @@
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="59"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="53"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>27</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="59"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="53"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5917,10 +5997,10 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="57" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="55" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.875" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="55" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -5938,7 +6018,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="56" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5947,94 +6027,94 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="56"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="59"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="56"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="59"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="56"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="59"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="56"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
+      <c r="F11" s="40"/>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -6042,10 +6122,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="40"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -6053,132 +6133,132 @@
         <v>10</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="56"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="56"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="56"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="56"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="56"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="56"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="59"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="56"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="59"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="56"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="56"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="52"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="52"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="52"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
@@ -6186,10 +6266,10 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="42"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="52"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
@@ -6197,10 +6277,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="42"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="52"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
@@ -6208,10 +6288,10 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="42"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="52"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6269,10 +6349,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="40"/>
       <c r="G4" t="s">
         <v>11</v>
       </c>
@@ -6282,98 +6362,98 @@
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="59"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="59"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="59"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="26"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="7"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="42"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D15" s="7" t="str">
         <f>"\"&amp;CHAR(9)&amp;CHAR(9)&amp;"12,345"</f>
         <v>\		12,345</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6387,8 +6467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6396,7 +6476,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="57" customWidth="1"/>
+    <col min="4" max="4" width="26" style="55" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -6421,7 +6501,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="56" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -6438,14 +6518,14 @@
       <c r="B4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>40968.081944444442</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>114</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="40" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6456,14 +6536,14 @@
       <c r="B5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>40968.873622685183</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>115</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="40" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6474,14 +6554,14 @@
       <c r="B6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="78">
         <v>40968.081944444442</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="57" t="s">
         <v>116</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="40" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6492,14 +6572,14 @@
       <c r="B7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="78">
         <v>40968.873622685183</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>117</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="40" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6510,14 +6590,14 @@
       <c r="B8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="79">
         <v>40968.081944444442</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="57" t="s">
         <v>106</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="40" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6528,14 +6608,14 @@
       <c r="B9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="79">
         <v>40968.873622685183</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="57" t="s">
         <v>107</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="40" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6546,14 +6626,14 @@
       <c r="B10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="80">
         <v>40968.081944444442</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="57" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6564,14 +6644,14 @@
       <c r="B11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="80">
         <v>40968.873622685183</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="57" t="s">
         <v>109</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6582,14 +6662,14 @@
       <c r="B12" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="81">
         <v>40968.081944444442</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="57" t="s">
         <v>118</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6600,14 +6680,14 @@
       <c r="B13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="81">
         <v>40968.873622685183</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="57" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6618,14 +6698,14 @@
       <c r="B14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="82">
         <v>40968.081944444442</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="57" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6636,14 +6716,14 @@
       <c r="B15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="82">
         <v>40968.873622685183</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="57" t="s">
         <v>111</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6654,14 +6734,14 @@
       <c r="B16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="83">
         <v>40968.081944444442</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="40" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6672,14 +6752,14 @@
       <c r="B17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="83">
         <v>40968.873622685183</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="57" t="s">
         <v>113</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="40" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6690,14 +6770,14 @@
       <c r="B18" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="84">
         <v>42064</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="57" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="40" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6708,14 +6788,14 @@
       <c r="B19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="84">
         <v>42065</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="57" t="s">
         <v>127</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="40" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6726,14 +6806,14 @@
       <c r="B20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="84">
         <v>42066</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="57" t="s">
         <v>128</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="40" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6744,14 +6824,14 @@
       <c r="B21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="84">
         <v>42067</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="57" t="s">
         <v>129</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="40" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6762,14 +6842,14 @@
       <c r="B22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="84">
         <v>42068</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="57" t="s">
         <v>130</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="40" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6780,14 +6860,14 @@
       <c r="B23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="84">
         <v>42069</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="57" t="s">
         <v>131</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="40" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6798,14 +6878,14 @@
       <c r="B24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="84">
         <v>42070</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="57" t="s">
         <v>132</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="40" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6816,14 +6896,14 @@
       <c r="B25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="85">
         <v>42064</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="57" t="s">
         <v>133</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="40" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6834,14 +6914,14 @@
       <c r="B26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="85">
         <v>42065</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="57" t="s">
         <v>134</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="40" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6852,14 +6932,14 @@
       <c r="B27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="85">
         <v>42066</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="57" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="40" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6870,14 +6950,14 @@
       <c r="B28" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="87">
+      <c r="C28" s="85">
         <v>42067</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="57" t="s">
         <v>136</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="40" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6888,14 +6968,14 @@
       <c r="B29" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C29" s="85">
         <v>42068</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="57" t="s">
         <v>137</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="40" t="s">
         <v>141</v>
       </c>
       <c r="H29" t="s">
@@ -6909,14 +6989,14 @@
       <c r="B30" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="87">
+      <c r="C30" s="85">
         <v>42069</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="57" t="s">
         <v>138</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="40" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6927,14 +7007,14 @@
       <c r="B31" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="87">
+      <c r="C31" s="85">
         <v>42070</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="57" t="s">
         <v>139</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="40" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6945,14 +7025,14 @@
       <c r="B32" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="89">
+      <c r="C32" s="87">
         <v>42064</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="57" t="s">
         <v>146</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="40" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6963,14 +7043,14 @@
       <c r="B33" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="89">
+      <c r="C33" s="87">
         <v>42065</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="57" t="s">
         <v>147</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="40" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6981,14 +7061,14 @@
       <c r="B34" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="89">
+      <c r="C34" s="87">
         <v>42066</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="57" t="s">
         <v>148</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="40" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6999,14 +7079,14 @@
       <c r="B35" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="89">
+      <c r="C35" s="87">
         <v>42067</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="57" t="s">
         <v>149</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="40" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7017,14 +7097,14 @@
       <c r="B36" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="89">
+      <c r="C36" s="87">
         <v>42068</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="57" t="s">
         <v>150</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="40" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7035,14 +7115,14 @@
       <c r="B37" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="89">
+      <c r="C37" s="87">
         <v>42069</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="57" t="s">
         <v>151</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="40" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7053,14 +7133,14 @@
       <c r="B38" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="89">
+      <c r="C38" s="87">
         <v>42070</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="57" t="s">
         <v>152</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="40" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7071,14 +7151,14 @@
       <c r="B39" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="88">
+      <c r="C39" s="86">
         <v>42064</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="57" t="s">
         <v>153</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="40" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7089,14 +7169,14 @@
       <c r="B40" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="88">
+      <c r="C40" s="86">
         <v>42065</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="57" t="s">
         <v>154</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="40" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7107,14 +7187,14 @@
       <c r="B41" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="88">
+      <c r="C41" s="86">
         <v>42066</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="57" t="s">
         <v>155</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="40" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7125,14 +7205,14 @@
       <c r="B42" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="88">
+      <c r="C42" s="86">
         <v>42067</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="57" t="s">
         <v>156</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="40" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7143,14 +7223,14 @@
       <c r="B43" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="88">
+      <c r="C43" s="86">
         <v>42068</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="57" t="s">
         <v>157</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="40" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7161,14 +7241,14 @@
       <c r="B44" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="88">
+      <c r="C44" s="86">
         <v>42069</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="57" t="s">
         <v>158</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="40" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7179,14 +7259,14 @@
       <c r="B45" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="88">
+      <c r="C45" s="86">
         <v>42070</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="57" t="s">
         <v>159</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="40" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7197,14 +7277,14 @@
       <c r="B46" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="90">
+      <c r="C46" s="88">
         <v>42070</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="57" t="s">
         <v>164</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="42" t="s">
+      <c r="F46" s="40" t="s">
         <v>166</v>
       </c>
     </row>
@@ -7215,14 +7295,14 @@
       <c r="B47" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="91">
+      <c r="C47" s="89">
         <v>42070</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="57" t="s">
         <v>165</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="40" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7233,14 +7313,14 @@
       <c r="B48" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="92">
+      <c r="C48" s="90">
         <v>0</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>198</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="40" t="s">
         <v>169</v>
       </c>
       <c r="G48" t="s">
@@ -7254,14 +7334,14 @@
       <c r="B49" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="92">
+      <c r="C49" s="90">
         <v>1</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>176</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="42" t="s">
+      <c r="F49" s="40" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7272,14 +7352,14 @@
       <c r="B50" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="92">
+      <c r="C50" s="90">
         <v>4594.9999884259259</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>177</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="40" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7290,14 +7370,14 @@
       <c r="B51" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="92">
+      <c r="C51" s="90">
         <v>4595</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="42" t="s">
+      <c r="F51" s="40" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7308,14 +7388,14 @@
       <c r="B52" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="92">
+      <c r="C52" s="90">
         <v>9855.999988425925</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="40" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7326,14 +7406,14 @@
       <c r="B53" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="92">
+      <c r="C53" s="90">
         <v>9856</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>180</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="40" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7344,14 +7424,14 @@
       <c r="B54" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="92">
+      <c r="C54" s="90">
         <v>32515.999988425927</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>181</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="42" t="s">
+      <c r="F54" s="40" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7362,14 +7442,14 @@
       <c r="B55" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="92">
+      <c r="C55" s="90">
         <v>32516</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="57" t="s">
         <v>182</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="40" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7380,14 +7460,14 @@
       <c r="B56" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="93">
+      <c r="C56" s="91">
         <v>32516</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="57" t="s">
         <v>183</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="40" t="s">
         <v>172</v>
       </c>
       <c r="G56" t="s">
@@ -7401,14 +7481,14 @@
       <c r="B57" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="94">
+      <c r="C57" s="92">
         <v>0</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="57" t="s">
         <v>200</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="40" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7419,14 +7499,14 @@
       <c r="B58" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="94">
+      <c r="C58" s="92">
         <v>1</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="57" t="s">
         <v>184</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="42" t="s">
+      <c r="F58" s="40" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7437,14 +7517,14 @@
       <c r="B59" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="94">
+      <c r="C59" s="92">
         <v>4594.9999884259259</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="57" t="s">
         <v>185</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="42" t="s">
+      <c r="F59" s="40" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7455,14 +7535,14 @@
       <c r="B60" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="94">
+      <c r="C60" s="92">
         <v>4595</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="57" t="s">
         <v>186</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="42" t="s">
+      <c r="F60" s="40" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7473,14 +7553,14 @@
       <c r="B61" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="94">
+      <c r="C61" s="92">
         <v>9855.999988425925</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="57" t="s">
         <v>187</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="42" t="s">
+      <c r="F61" s="40" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7491,14 +7571,14 @@
       <c r="B62" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="94">
+      <c r="C62" s="92">
         <v>9856</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="57" t="s">
         <v>188</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="42" t="s">
+      <c r="F62" s="40" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7509,14 +7589,14 @@
       <c r="B63" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="94">
+      <c r="C63" s="92">
         <v>32515.999988425927</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="57" t="s">
         <v>189</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="42" t="s">
+      <c r="F63" s="40" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7527,14 +7607,14 @@
       <c r="B64" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="94">
+      <c r="C64" s="92">
         <v>32516</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="57" t="s">
         <v>190</v>
       </c>
       <c r="E64" s="2"/>
-      <c r="F64" s="42" t="s">
+      <c r="F64" s="40" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7545,14 +7625,14 @@
       <c r="B65" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="96">
+      <c r="C65" s="94">
         <v>0</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="57" t="s">
         <v>201</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="42" t="s">
+      <c r="F65" s="40" t="s">
         <v>175</v>
       </c>
       <c r="G65" t="s">
@@ -7566,14 +7646,14 @@
       <c r="B66" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="95">
+      <c r="C66" s="93">
         <v>1</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="57" t="s">
         <v>191</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="42" t="s">
+      <c r="F66" s="40" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7584,14 +7664,14 @@
       <c r="B67" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C67" s="95">
+      <c r="C67" s="93">
         <v>4594.9999884259259</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="57" t="s">
         <v>192</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="42" t="s">
+      <c r="F67" s="40" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7602,14 +7682,14 @@
       <c r="B68" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="95">
+      <c r="C68" s="93">
         <v>4595</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="57" t="s">
         <v>193</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="42" t="s">
+      <c r="F68" s="40" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7620,14 +7700,14 @@
       <c r="B69" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="95">
+      <c r="C69" s="93">
         <v>9855.999988425925</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="57" t="s">
         <v>194</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="42" t="s">
+      <c r="F69" s="40" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7638,14 +7718,14 @@
       <c r="B70" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="95">
+      <c r="C70" s="93">
         <v>9856</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="57" t="s">
         <v>195</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="42" t="s">
+      <c r="F70" s="40" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7656,14 +7736,14 @@
       <c r="B71" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="95">
+      <c r="C71" s="93">
         <v>32515.999988425927</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="57" t="s">
         <v>196</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="42" t="s">
+      <c r="F71" s="40" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7674,14 +7754,14 @@
       <c r="B72" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C72" s="95">
+      <c r="C72" s="93">
         <v>32516</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="57" t="s">
         <v>197</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="42" t="s">
+      <c r="F72" s="40" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7692,14 +7772,14 @@
       <c r="B73" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="97">
+      <c r="C73" s="95">
         <v>21894.999988425927</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="57" t="s">
         <v>205</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="42" t="s">
+      <c r="F73" s="40" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7710,14 +7790,14 @@
       <c r="B74" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="97">
+      <c r="C74" s="95">
         <v>32518</v>
       </c>
-      <c r="D74" s="59" t="s">
+      <c r="D74" s="57" t="s">
         <v>206</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="42" t="s">
+      <c r="F74" s="40" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7728,14 +7808,14 @@
       <c r="B75" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C75" s="98">
+      <c r="C75" s="96">
         <v>21894.999988425927</v>
       </c>
-      <c r="D75" s="59" t="s">
+      <c r="D75" s="57" t="s">
         <v>214</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="42" t="s">
+      <c r="F75" s="40" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7746,14 +7826,14 @@
       <c r="B76" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="98">
+      <c r="C76" s="96">
         <v>32518</v>
       </c>
-      <c r="D76" s="59" t="s">
+      <c r="D76" s="57" t="s">
         <v>207</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="42" t="s">
+      <c r="F76" s="40" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7764,14 +7844,14 @@
       <c r="B77" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C77" s="99">
+      <c r="C77" s="97">
         <v>21894.999988425927</v>
       </c>
-      <c r="D77" s="59" t="s">
+      <c r="D77" s="57" t="s">
         <v>208</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="42" t="s">
+      <c r="F77" s="40" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7782,14 +7862,14 @@
       <c r="B78" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="99">
+      <c r="C78" s="97">
         <v>32518</v>
       </c>
-      <c r="D78" s="59" t="s">
+      <c r="D78" s="57" t="s">
         <v>209</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="42" t="s">
+      <c r="F78" s="40" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7797,101 +7877,117 @@
       <c r="A79" s="6">
         <v>76</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="59"/>
+      <c r="B79" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="128">
+        <v>42070</v>
+      </c>
+      <c r="D79" s="57" t="s">
+        <v>159</v>
+      </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="42"/>
+      <c r="F79" s="40" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="6">
         <v>77</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="59"/>
+      <c r="B80" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" s="129">
+        <v>42070</v>
+      </c>
+      <c r="D80" s="57" t="s">
+        <v>159</v>
+      </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="42"/>
+      <c r="F80" s="40" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="6">
         <v>78</v>
       </c>
       <c r="B81" s="7"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="59"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="57"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="42"/>
+      <c r="F81" s="40"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="6">
         <v>79</v>
       </c>
       <c r="B82" s="7"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="59"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="57"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="42"/>
+      <c r="F82" s="40"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="6">
         <v>80</v>
       </c>
       <c r="B83" s="7"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="59"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="42"/>
+      <c r="F83" s="40"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="6">
         <v>81</v>
       </c>
       <c r="B84" s="7"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="59"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="42"/>
+      <c r="F84" s="40"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="6">
         <v>82</v>
       </c>
       <c r="B85" s="7"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="59"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="57"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="42"/>
+      <c r="F85" s="40"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="6">
         <v>83</v>
       </c>
       <c r="B86" s="7"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="59"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="57"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="42"/>
+      <c r="F86" s="40"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="6">
         <v>84</v>
       </c>
       <c r="B87" s="7"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="59"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="57"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="42"/>
+      <c r="F87" s="40"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="6">
         <v>85</v>
       </c>
       <c r="B88" s="7"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="59"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="57"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="42"/>
+      <c r="F88" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7914,7 +8010,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="55" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -7939,7 +8035,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="56" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -7956,14 +8052,14 @@
       <c r="B4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="72">
         <v>0.37722222222222218</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
@@ -7972,14 +8068,14 @@
       <c r="B5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="72">
         <v>1.0855555555555556</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
@@ -7988,14 +8084,14 @@
       <c r="B6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="73">
         <v>0.37722222222222218</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="57" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
@@ -8004,14 +8100,14 @@
       <c r="B7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="73">
         <v>1.0855555555555556</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
@@ -8020,14 +8116,14 @@
       <c r="B8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="74">
         <v>2.2222222222222222E-3</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="57" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
@@ -8036,14 +8132,14 @@
       <c r="B9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="74">
         <v>4.5277777777777778E-2</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="57" t="s">
         <v>78</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
@@ -8052,14 +8148,14 @@
       <c r="B10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="75">
         <v>2.2222222222222222E-3</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="57" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
@@ -8068,14 +8164,14 @@
       <c r="B11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="75">
         <v>4.5277777777777778E-2</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="57" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
@@ -8084,14 +8180,14 @@
       <c r="B12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="76">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="57" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
@@ -8100,14 +8196,14 @@
       <c r="B13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="76">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="57" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="42"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
@@ -8116,14 +8212,14 @@
       <c r="B14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="77">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="57" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="42"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
@@ -8132,14 +8228,14 @@
       <c r="B15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="77">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="57" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="42"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
@@ -8148,16 +8244,16 @@
       <c r="B16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="61">
         <v>40968.542824074073</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="57" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>46</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8168,16 +8264,16 @@
       <c r="B17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="61">
         <v>0</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="57" t="s">
         <v>85</v>
       </c>
       <c r="E17" s="2">
         <v>46</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8188,16 +8284,16 @@
       <c r="B18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="61">
         <v>0.99998842592592585</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="57" t="s">
         <v>86</v>
       </c>
       <c r="E18" s="2">
         <v>46</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8208,16 +8304,16 @@
       <c r="B19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="61">
         <v>1</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="57" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="2">
         <v>46</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8228,16 +8324,16 @@
       <c r="B20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="61">
         <v>1.0416666666666667</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="57" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="2">
         <v>46</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8248,16 +8344,16 @@
       <c r="B21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="61">
         <v>59.999988425925928</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="57" t="s">
         <v>90</v>
       </c>
       <c r="E21" s="2">
         <v>46</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8268,16 +8364,16 @@
       <c r="B22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="61">
         <v>59</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="57" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="2">
         <v>46</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8288,16 +8384,16 @@
       <c r="B23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="61">
         <v>61.999988425925928</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="57" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="2">
         <v>46</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8306,80 +8402,80 @@
         <v>21</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="42"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>22</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="59"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="42"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>23</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="59"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="42"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>24</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="59"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="42"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>25</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="59"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="42"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>26</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="59"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="42"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>27</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="59"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="42"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>28</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="59"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="42"/>
+      <c r="F31" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8437,50 +8533,50 @@
         <v>1</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="34"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="7"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="35"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="7"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="31"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="7"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="32"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="7"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="33"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="7"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
+      <c r="F8" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8503,7 +8599,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="104" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="102" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
@@ -8523,7 +8619,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="103" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -8540,14 +8636,14 @@
       <c r="B4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="100">
+      <c r="C4" s="98">
         <v>3.25</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="104" t="s">
         <v>219</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="40" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8558,14 +8654,14 @@
       <c r="B5" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="100">
+      <c r="C5" s="98">
         <v>-3.25</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="104" t="s">
         <v>220</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="40" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8576,14 +8672,14 @@
       <c r="B6" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="99">
         <v>3.25</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="104" t="s">
         <v>222</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="40" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8594,14 +8690,14 @@
       <c r="B7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="99">
         <v>-3.25</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="104" t="s">
         <v>223</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="40" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8612,14 +8708,14 @@
       <c r="B8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="102">
+      <c r="C8" s="100">
         <v>3.25</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="104" t="s">
         <v>224</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="40" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8630,14 +8726,14 @@
       <c r="B9" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="102">
+      <c r="C9" s="100">
         <v>-3.25</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="104" t="s">
         <v>225</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="40" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8648,14 +8744,14 @@
       <c r="B10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="103">
+      <c r="C10" s="101">
         <v>3.25</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="104" t="s">
         <v>221</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="40" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8666,14 +8762,14 @@
       <c r="B11" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C11" s="101">
         <v>-3.25</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="104" t="s">
         <v>226</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="40" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8682,20 +8778,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="106"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="42"/>
+      <c r="F13" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/data/cell_format_2010_custom.xlsx
+++ b/src/test/data/cell_format_2010_custom.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="311">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -1733,10 +1733,124 @@
     <t>[DBNum1][$-409]#.##</t>
   </si>
   <si>
-    <t>DBがないロケール（日付）</t>
+    <t>漢数字（ゼロ）（前後に文字）</t>
+    <rPh sb="0" eb="3">
+      <t>カンスウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢数字（ゼロ）（前後に文字）2</t>
+    <rPh sb="0" eb="3">
+      <t>カンスウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大字（ゼロ）（前後に文字）</t>
+    <rPh sb="0" eb="2">
+      <t>オオアザ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンゴ</t>
+    </rPh>
     <rPh sb="10" eb="12">
-      <t>ヒヅケ</t>
-    </rPh>
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大字（ゼロ）（前後に文字）2</t>
+    <rPh sb="0" eb="2">
+      <t>オオアザ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[〇]</t>
+  </si>
+  <si>
+    <t>[DBNum1][$-411]"["#0"]"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[DBNum1][$-411]"["#"]"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[DBNum2][$-411]"["#0"]"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[DBNum2][$-411]"["#"]"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢数字（ゼロ）（前後に文字）（小数）</t>
+    <rPh sb="0" eb="3">
+      <t>カンスウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[〇.〇]</t>
+  </si>
+  <si>
+    <t>[DBNum2][$-411]"["0.0"]"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大字（ゼロ）（前後に文字）（小数）</t>
+    <rPh sb="0" eb="2">
+      <t>オオアザ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[DBNum1][$-411]"["0.0"]"</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1744,91 +1858,96 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="84">
+  <numFmts count="89">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0;&quot;▲ &quot;0"/>
-    <numFmt numFmtId="179" formatCode="#,##0.0;&quot;▲ &quot;#,##0.0"/>
-    <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="181" formatCode="&quot;¥&quot;#,##0.0_);[Red]\(&quot;¥&quot;#,##0.0\)"/>
-    <numFmt numFmtId="182" formatCode="&quot;¥&quot;#,##0_);\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="183" formatCode="&quot;¥&quot;#,##0.0_);\(&quot;¥&quot;#,##0.0\)"/>
-    <numFmt numFmtId="184" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
-    <numFmt numFmtId="185" formatCode="&quot;¥&quot;#,##0.0;[Red]&quot;¥&quot;#,##0.0"/>
-    <numFmt numFmtId="186" formatCode="&quot;¥&quot;#,##0.0;&quot;¥&quot;\-#,##0.0"/>
-    <numFmt numFmtId="187" formatCode="&quot;¥&quot;#,##0.0;[Red]&quot;¥&quot;\-#,##0.0"/>
-    <numFmt numFmtId="188" formatCode="_ &quot;¥&quot;* #,##0.0_ ;_ &quot;¥&quot;* \-#,##0.0_ ;_ &quot;¥&quot;* &quot;-&quot;?_ ;_ @_ "/>
-    <numFmt numFmtId="189" formatCode="_-\$* #,##0_ ;_-\$* \-#,##0\ ;_-\$* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="190" formatCode="_-\$* #,##0.0_ ;_-\$* \-#,##0.0\ ;_-\$* &quot;-&quot;?_ ;_-@_ "/>
-    <numFmt numFmtId="191" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="192" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="193" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="195" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="196" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="197" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="198" formatCode="#\ ?/4"/>
-    <numFmt numFmtId="199" formatCode="#\ ?/100"/>
-    <numFmt numFmtId="200" formatCode="0.E+00"/>
-    <numFmt numFmtId="201" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="202" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
-    <numFmt numFmtId="203" formatCode="&quot;△&quot;\ #,##0;&quot;▲&quot;\ #,##0"/>
-    <numFmt numFmtId="204" formatCode="[&lt;=99999999]####\-####;\(00\)\ ####\-####"/>
-    <numFmt numFmtId="205" formatCode="[DBNum1][$-411]General"/>
-    <numFmt numFmtId="206" formatCode="[DBNum2][$-411]General"/>
-    <numFmt numFmtId="207" formatCode="[DBNum3][$-411]0"/>
-    <numFmt numFmtId="208" formatCode="[DBNum3][$-411]#,##0"/>
-    <numFmt numFmtId="209" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
-    <numFmt numFmtId="210" formatCode="[Blue]#,##0.0;[Yellow]#,##0.0;[Green]0.0;@"/>
-    <numFmt numFmtId="211" formatCode="#,##0.0##"/>
-    <numFmt numFmtId="212" formatCode="#,##0.0#%"/>
-    <numFmt numFmtId="213" formatCode="#,##0.0#,"/>
-    <numFmt numFmtId="214" formatCode="#,##0.0#,,"/>
-    <numFmt numFmtId="215" formatCode="[Color10]#,##0.0;[Color20]#,##0.0;[Color30]0.0;@"/>
-    <numFmt numFmtId="216" formatCode="[Red][&gt;100]&quot;&gt;&quot;##.0#;[Blue][=100]&quot;=&quot;##.0#;[Magenta]&quot;その他&quot;##.0#"/>
-    <numFmt numFmtId="217" formatCode="[Green][&lt;=99]&quot;&lt;=&quot;##.0#;[Blue][&gt;=100]&quot;&gt;=&quot;##.0#;@"/>
-    <numFmt numFmtId="218" formatCode="[Red][=100]&quot;等しい&quot;##.0#;[Yellow][&lt;&gt;100]&quot;等しくない&quot;##.0;@"/>
-    <numFmt numFmtId="219" formatCode="[Red][&lt;100]&quot;以前&quot;##.0#;[Color10]##.00"/>
-    <numFmt numFmtId="220" formatCode="[h]&quot;時間&quot;mm&quot;分&quot;ss&quot;秒&quot;"/>
-    <numFmt numFmtId="221" formatCode="[hh]&quot;時間&quot;mm&quot;分&quot;ss&quot;秒&quot;"/>
-    <numFmt numFmtId="222" formatCode="[m]&quot;分&quot;ss&quot;秒&quot;"/>
-    <numFmt numFmtId="223" formatCode="[mm]&quot;分&quot;ss&quot;秒&quot;"/>
-    <numFmt numFmtId="224" formatCode="[s]&quot;秒&quot;"/>
-    <numFmt numFmtId="225" formatCode="[ss]&quot;秒&quot;"/>
-    <numFmt numFmtId="226" formatCode="yyyy/m/d\ h:mm\ am/pm;@"/>
-    <numFmt numFmtId="227" formatCode="yyyy/m/d\ h:mm\ A/P"/>
-    <numFmt numFmtId="228" formatCode="yyyy/m/d\ h:mm\ a/p"/>
-    <numFmt numFmtId="229" formatCode="yyyy/m/d\ h:mm\ Am/Pm"/>
-    <numFmt numFmtId="230" formatCode="[$-411]yyyy/m/d\ h:mm\ Am/Pm"/>
-    <numFmt numFmtId="231" formatCode="[$-411]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ Am/Pm\ h&quot;時&quot;mm&quot;分&quot;ss&quot;秒&quot;"/>
-    <numFmt numFmtId="232" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\(aaaa\)"/>
-    <numFmt numFmtId="233" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
-    <numFmt numFmtId="234" formatCode="yyyy/m/d\ \(ddd\)"/>
-    <numFmt numFmtId="235" formatCode="yyyy/m/d\ \(dddd\)"/>
-    <numFmt numFmtId="236" formatCode="[$-411]yyyy/m/d\ \(ddd\)"/>
-    <numFmt numFmtId="237" formatCode="[$-411]yyyy/m/d\ \(dddd\)"/>
-    <numFmt numFmtId="238" formatCode="[$-411]gge\.m\.d\ hh:mm:ss;@"/>
-    <numFmt numFmtId="239" formatCode="[$-411]ggee\.m\.d\ hh:mm:ss;@"/>
-    <numFmt numFmtId="240" formatCode="gggee\.m\.d\ hh:mm:ss;@"/>
-    <numFmt numFmtId="241" formatCode="ee\.m\.d\ hh:mm:ss;@"/>
-    <numFmt numFmtId="242" formatCode="ee\.m\.d\ hh:mm:ss"/>
-    <numFmt numFmtId="243" formatCode="[DBNum1][$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="244" formatCode="[DBNum2][$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="245" formatCode="[DBNum3][$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="246" formatCode="###\ ??/##"/>
-    <numFmt numFmtId="247" formatCode="??/##"/>
-    <numFmt numFmtId="248" formatCode="###\ ??/201"/>
-    <numFmt numFmtId="249" formatCode="??/201"/>
-    <numFmt numFmtId="250" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="251" formatCode="&quot;接頭語：&quot;\ @"/>
-    <numFmt numFmtId="252" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="253" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="254" formatCode="[$-409]yyyy/m/d\ \(ddd\)"/>
-    <numFmt numFmtId="255" formatCode="[DBNum1][$-409]yyyy/m/d\ \(ddd\)"/>
-    <numFmt numFmtId="256" formatCode="[DBNum1][$-409]#.##"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0;&quot;▲ &quot;#,##0.0"/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0.0_);[Red]\(&quot;¥&quot;#,##0.0\)"/>
+    <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0_);\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="&quot;¥&quot;#,##0.0_);\(&quot;¥&quot;#,##0.0\)"/>
+    <numFmt numFmtId="182" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
+    <numFmt numFmtId="183" formatCode="&quot;¥&quot;#,##0.0;[Red]&quot;¥&quot;#,##0.0"/>
+    <numFmt numFmtId="184" formatCode="&quot;¥&quot;#,##0.0;&quot;¥&quot;\-#,##0.0"/>
+    <numFmt numFmtId="185" formatCode="&quot;¥&quot;#,##0.0;[Red]&quot;¥&quot;\-#,##0.0"/>
+    <numFmt numFmtId="186" formatCode="_ &quot;¥&quot;* #,##0.0_ ;_ &quot;¥&quot;* \-#,##0.0_ ;_ &quot;¥&quot;* &quot;-&quot;?_ ;_ @_ "/>
+    <numFmt numFmtId="187" formatCode="_-\$* #,##0_ ;_-\$* \-#,##0\ ;_-\$* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="188" formatCode="_-\$* #,##0.0_ ;_-\$* \-#,##0.0\ ;_-\$* &quot;-&quot;?_ ;_-@_ "/>
+    <numFmt numFmtId="189" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="190" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="191" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="192" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="193" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="194" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="195" formatCode="#\ ?/4"/>
+    <numFmt numFmtId="196" formatCode="#\ ?/100"/>
+    <numFmt numFmtId="197" formatCode="0.E+00"/>
+    <numFmt numFmtId="198" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="199" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
+    <numFmt numFmtId="200" formatCode="&quot;△&quot;\ #,##0;&quot;▲&quot;\ #,##0"/>
+    <numFmt numFmtId="201" formatCode="[&lt;=99999999]####\-####;\(00\)\ ####\-####"/>
+    <numFmt numFmtId="202" formatCode="[DBNum1][$-411]General"/>
+    <numFmt numFmtId="203" formatCode="[DBNum2][$-411]General"/>
+    <numFmt numFmtId="204" formatCode="[DBNum3][$-411]0"/>
+    <numFmt numFmtId="205" formatCode="[DBNum3][$-411]#,##0"/>
+    <numFmt numFmtId="206" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
+    <numFmt numFmtId="207" formatCode="[Blue]#,##0.0;[Yellow]#,##0.0;[Green]0.0;@"/>
+    <numFmt numFmtId="208" formatCode="#,##0.0##"/>
+    <numFmt numFmtId="209" formatCode="#,##0.0#%"/>
+    <numFmt numFmtId="210" formatCode="#,##0.0#,"/>
+    <numFmt numFmtId="211" formatCode="#,##0.0#,,"/>
+    <numFmt numFmtId="212" formatCode="[Color10]#,##0.0;[Color20]#,##0.0;[Color30]0.0;@"/>
+    <numFmt numFmtId="213" formatCode="[Red][&gt;100]&quot;&gt;&quot;##.0#;[Blue][=100]&quot;=&quot;##.0#;[Magenta]&quot;その他&quot;##.0#"/>
+    <numFmt numFmtId="214" formatCode="[Green][&lt;=99]&quot;&lt;=&quot;##.0#;[Blue][&gt;=100]&quot;&gt;=&quot;##.0#;@"/>
+    <numFmt numFmtId="215" formatCode="[Red][=100]&quot;等しい&quot;##.0#;[Yellow][&lt;&gt;100]&quot;等しくない&quot;##.0;@"/>
+    <numFmt numFmtId="216" formatCode="[Red][&lt;100]&quot;以前&quot;##.0#;[Color10]##.00"/>
+    <numFmt numFmtId="217" formatCode="[h]&quot;時間&quot;mm&quot;分&quot;ss&quot;秒&quot;"/>
+    <numFmt numFmtId="218" formatCode="[hh]&quot;時間&quot;mm&quot;分&quot;ss&quot;秒&quot;"/>
+    <numFmt numFmtId="219" formatCode="[m]&quot;分&quot;ss&quot;秒&quot;"/>
+    <numFmt numFmtId="220" formatCode="[mm]&quot;分&quot;ss&quot;秒&quot;"/>
+    <numFmt numFmtId="221" formatCode="[s]&quot;秒&quot;"/>
+    <numFmt numFmtId="222" formatCode="[ss]&quot;秒&quot;"/>
+    <numFmt numFmtId="223" formatCode="yyyy/m/d\ h:mm\ am/pm;@"/>
+    <numFmt numFmtId="224" formatCode="yyyy/m/d\ h:mm\ A/P"/>
+    <numFmt numFmtId="225" formatCode="yyyy/m/d\ h:mm\ a/p"/>
+    <numFmt numFmtId="226" formatCode="yyyy/m/d\ h:mm\ Am/Pm"/>
+    <numFmt numFmtId="227" formatCode="[$-411]yyyy/m/d\ h:mm\ Am/Pm"/>
+    <numFmt numFmtId="228" formatCode="[$-411]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ Am/Pm\ h&quot;時&quot;mm&quot;分&quot;ss&quot;秒&quot;"/>
+    <numFmt numFmtId="229" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\(aaaa\)"/>
+    <numFmt numFmtId="230" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
+    <numFmt numFmtId="231" formatCode="yyyy/m/d\ \(ddd\)"/>
+    <numFmt numFmtId="232" formatCode="yyyy/m/d\ \(dddd\)"/>
+    <numFmt numFmtId="233" formatCode="[$-411]yyyy/m/d\ \(ddd\)"/>
+    <numFmt numFmtId="234" formatCode="[$-411]yyyy/m/d\ \(dddd\)"/>
+    <numFmt numFmtId="235" formatCode="[$-411]gge\.m\.d\ hh:mm:ss;@"/>
+    <numFmt numFmtId="236" formatCode="[$-411]ggee\.m\.d\ hh:mm:ss;@"/>
+    <numFmt numFmtId="237" formatCode="gggee\.m\.d\ hh:mm:ss;@"/>
+    <numFmt numFmtId="238" formatCode="ee\.m\.d\ hh:mm:ss;@"/>
+    <numFmt numFmtId="239" formatCode="ee\.m\.d\ hh:mm:ss"/>
+    <numFmt numFmtId="240" formatCode="[DBNum1][$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="241" formatCode="[DBNum2][$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="242" formatCode="[DBNum3][$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="243" formatCode="###\ ??/##"/>
+    <numFmt numFmtId="244" formatCode="??/##"/>
+    <numFmt numFmtId="245" formatCode="###\ ??/201"/>
+    <numFmt numFmtId="246" formatCode="??/201"/>
+    <numFmt numFmtId="247" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="248" formatCode="&quot;接頭語：&quot;\ @"/>
+    <numFmt numFmtId="249" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="250" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="251" formatCode="[$-409]yyyy/m/d\ \(ddd\)"/>
+    <numFmt numFmtId="252" formatCode="[DBNum1][$-409]yyyy/m/d\ \(ddd\)"/>
+    <numFmt numFmtId="253" formatCode="[DBNum1][$-409]#.##"/>
+    <numFmt numFmtId="254" formatCode="[DBNum1][$-411]&quot;[&quot;#0&quot;]&quot;"/>
+    <numFmt numFmtId="255" formatCode="[DBNum1][$-411]&quot;[&quot;#&quot;]&quot;"/>
+    <numFmt numFmtId="256" formatCode="[DBNum2][$-411]&quot;[&quot;#0&quot;]&quot;"/>
+    <numFmt numFmtId="257" formatCode="[DBNum2][$-411]&quot;[&quot;#&quot;]&quot;"/>
+    <numFmt numFmtId="258" formatCode="[DBNum2][$-411]&quot;[&quot;0.0&quot;]&quot;"/>
+    <numFmt numFmtId="260" formatCode="[DBNum1][$-411]&quot;[&quot;0.0&quot;]&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1917,14 +2036,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1933,46 +2049,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="24" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="191" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="192" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="193" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="195" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="196" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="197" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="198" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="199" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="200" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="201" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="202" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="203" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="204" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="205" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="206" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="207" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="209" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="206" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -1982,12 +2097,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="207" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="208" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="209" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="210" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="211" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="212" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2025,14 +2140,11 @@
     <xf numFmtId="244" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="245" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="246" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="247" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="248" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="249" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="250" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="251" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="247" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="248" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -2049,18 +2161,24 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="252" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="249" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="205" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="206" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="202" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="203" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="253" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="251" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="252" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="253" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="254" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="255" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="256" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="257" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="250" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="258" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="260" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3419,7 +3537,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3427,7 +3545,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="53" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
@@ -3438,7 +3556,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3447,7 +3565,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3458,128 +3576,152 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="128">
-        <v>42070</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>159</v>
+      <c r="B4" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="125">
+        <v>0</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>301</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="40" t="s">
-        <v>290</v>
+      <c r="F4" s="38" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="129">
-        <v>42070</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>159</v>
+      <c r="B5" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="126">
+        <v>0</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>297</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="40" t="s">
-        <v>291</v>
+      <c r="F5" s="38" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="130">
-        <v>1234567.8899999999</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>294</v>
+      <c r="B6" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="133">
+        <v>0</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>307</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="40" t="s">
-        <v>295</v>
+      <c r="F6" s="38" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="127">
+        <v>0</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>301</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="38" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="128">
+        <v>0</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>297</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="38" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="132">
+        <v>0</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>307</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="38" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="57"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="57"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="57"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="57"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="40"/>
+      <c r="F13" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3612,7 +3754,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3632,54 +3774,54 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="40"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3713,7 +3855,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3733,84 +3875,84 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>233</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="106" t="b">
+      <c r="C6" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3825,7 +3967,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F21"/>
+      <selection activeCell="B5" sqref="B5:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3844,7 +3986,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3864,204 +4006,260 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="124">
+        <v>1234567.8899999999</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>294</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="40"/>
+      <c r="F4" s="38" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="125">
+        <v>0</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>301</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="38" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="126">
+        <v>0</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>297</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="38" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="133">
+        <v>0</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>307</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="38" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="127">
+        <v>0</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>301</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="38" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="128">
+        <v>0</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>297</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="38" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="132">
+        <v>0</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>307</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="38" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="40"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="40"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="40"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="40"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="40"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="40"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="40"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="40"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="40"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="40"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="40"/>
+      <c r="F23" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4084,7 +4282,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="53" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
@@ -4095,7 +4293,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4104,7 +4302,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -4115,204 +4313,204 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="40"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="57"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="57"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="57"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="57"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="57"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="57"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="40"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="57"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="40"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="57"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="40"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="40"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="57"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="40"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="57"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="40"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="57"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="40"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="57"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="40"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="57"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="40"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="57"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="40"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="40"/>
+      <c r="F23" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4332,278 +4530,278 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="108"/>
-    <col min="2" max="2" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="257" width="9" style="108"/>
-    <col min="258" max="258" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="260" max="513" width="9" style="108"/>
-    <col min="514" max="514" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="516" max="769" width="9" style="108"/>
-    <col min="770" max="770" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="772" max="1025" width="9" style="108"/>
-    <col min="1026" max="1026" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1281" width="9" style="108"/>
-    <col min="1282" max="1282" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1537" width="9" style="108"/>
-    <col min="1538" max="1538" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1793" width="9" style="108"/>
-    <col min="1794" max="1794" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="1796" max="2049" width="9" style="108"/>
-    <col min="2050" max="2050" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2305" width="9" style="108"/>
-    <col min="2306" max="2306" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2561" width="9" style="108"/>
-    <col min="2562" max="2562" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2817" width="9" style="108"/>
-    <col min="2818" max="2818" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="2820" max="3073" width="9" style="108"/>
-    <col min="3074" max="3074" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3329" width="9" style="108"/>
-    <col min="3330" max="3330" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3585" width="9" style="108"/>
-    <col min="3586" max="3586" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3841" width="9" style="108"/>
-    <col min="3842" max="3842" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="3844" max="4097" width="9" style="108"/>
-    <col min="4098" max="4098" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4353" width="9" style="108"/>
-    <col min="4354" max="4354" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4609" width="9" style="108"/>
-    <col min="4610" max="4610" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4865" width="9" style="108"/>
-    <col min="4866" max="4866" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="4868" max="5121" width="9" style="108"/>
-    <col min="5122" max="5122" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5377" width="9" style="108"/>
-    <col min="5378" max="5378" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5633" width="9" style="108"/>
-    <col min="5634" max="5634" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5889" width="9" style="108"/>
-    <col min="5890" max="5890" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5892" max="6145" width="9" style="108"/>
-    <col min="6146" max="6146" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6401" width="9" style="108"/>
-    <col min="6402" max="6402" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6657" width="9" style="108"/>
-    <col min="6658" max="6658" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6913" width="9" style="108"/>
-    <col min="6914" max="6914" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6916" max="7169" width="9" style="108"/>
-    <col min="7170" max="7170" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7425" width="9" style="108"/>
-    <col min="7426" max="7426" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7681" width="9" style="108"/>
-    <col min="7682" max="7682" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7937" width="9" style="108"/>
-    <col min="7938" max="7938" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7940" max="8193" width="9" style="108"/>
-    <col min="8194" max="8194" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8449" width="9" style="108"/>
-    <col min="8450" max="8450" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8705" width="9" style="108"/>
-    <col min="8706" max="8706" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8961" width="9" style="108"/>
-    <col min="8962" max="8962" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="8964" max="9217" width="9" style="108"/>
-    <col min="9218" max="9218" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9473" width="9" style="108"/>
-    <col min="9474" max="9474" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9729" width="9" style="108"/>
-    <col min="9730" max="9730" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9985" width="9" style="108"/>
-    <col min="9986" max="9986" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9988" max="10241" width="9" style="108"/>
-    <col min="10242" max="10242" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10497" width="9" style="108"/>
-    <col min="10498" max="10498" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10753" width="9" style="108"/>
-    <col min="10754" max="10754" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="10756" max="11009" width="9" style="108"/>
-    <col min="11010" max="11010" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11265" width="9" style="108"/>
-    <col min="11266" max="11266" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11521" width="9" style="108"/>
-    <col min="11522" max="11522" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11777" width="9" style="108"/>
-    <col min="11778" max="11778" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="11780" max="12033" width="9" style="108"/>
-    <col min="12034" max="12034" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12289" width="9" style="108"/>
-    <col min="12290" max="12290" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12545" width="9" style="108"/>
-    <col min="12546" max="12546" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12801" width="9" style="108"/>
-    <col min="12802" max="12802" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="12804" max="13057" width="9" style="108"/>
-    <col min="13058" max="13058" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13313" width="9" style="108"/>
-    <col min="13314" max="13314" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13569" width="9" style="108"/>
-    <col min="13570" max="13570" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13825" width="9" style="108"/>
-    <col min="13826" max="13826" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="13828" max="14081" width="9" style="108"/>
-    <col min="14082" max="14082" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14337" width="9" style="108"/>
-    <col min="14338" max="14338" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14593" width="9" style="108"/>
-    <col min="14594" max="14594" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14849" width="9" style="108"/>
-    <col min="14850" max="14850" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14852" max="15105" width="9" style="108"/>
-    <col min="15106" max="15106" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15361" width="9" style="108"/>
-    <col min="15362" max="15362" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15617" width="9" style="108"/>
-    <col min="15618" max="15618" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15873" width="9" style="108"/>
-    <col min="15874" max="15874" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15876" max="16129" width="9" style="108"/>
-    <col min="16130" max="16130" width="15.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16384" width="9" style="108"/>
+    <col min="1" max="1" width="9" style="105"/>
+    <col min="2" max="2" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="257" width="9" style="105"/>
+    <col min="258" max="258" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="260" max="513" width="9" style="105"/>
+    <col min="514" max="514" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="516" max="769" width="9" style="105"/>
+    <col min="770" max="770" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="772" max="1025" width="9" style="105"/>
+    <col min="1026" max="1026" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1281" width="9" style="105"/>
+    <col min="1282" max="1282" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1537" width="9" style="105"/>
+    <col min="1538" max="1538" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1793" width="9" style="105"/>
+    <col min="1794" max="1794" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="1796" max="2049" width="9" style="105"/>
+    <col min="2050" max="2050" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2305" width="9" style="105"/>
+    <col min="2306" max="2306" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2561" width="9" style="105"/>
+    <col min="2562" max="2562" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2817" width="9" style="105"/>
+    <col min="2818" max="2818" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="2820" max="3073" width="9" style="105"/>
+    <col min="3074" max="3074" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3329" width="9" style="105"/>
+    <col min="3330" max="3330" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3585" width="9" style="105"/>
+    <col min="3586" max="3586" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3841" width="9" style="105"/>
+    <col min="3842" max="3842" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3844" max="4097" width="9" style="105"/>
+    <col min="4098" max="4098" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4353" width="9" style="105"/>
+    <col min="4354" max="4354" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4609" width="9" style="105"/>
+    <col min="4610" max="4610" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4865" width="9" style="105"/>
+    <col min="4866" max="4866" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4868" max="5121" width="9" style="105"/>
+    <col min="5122" max="5122" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5377" width="9" style="105"/>
+    <col min="5378" max="5378" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5633" width="9" style="105"/>
+    <col min="5634" max="5634" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5889" width="9" style="105"/>
+    <col min="5890" max="5890" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="5892" max="6145" width="9" style="105"/>
+    <col min="6146" max="6146" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6401" width="9" style="105"/>
+    <col min="6402" max="6402" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6657" width="9" style="105"/>
+    <col min="6658" max="6658" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6913" width="9" style="105"/>
+    <col min="6914" max="6914" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="6916" max="7169" width="9" style="105"/>
+    <col min="7170" max="7170" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7425" width="9" style="105"/>
+    <col min="7426" max="7426" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7681" width="9" style="105"/>
+    <col min="7682" max="7682" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7937" width="9" style="105"/>
+    <col min="7938" max="7938" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="7940" max="8193" width="9" style="105"/>
+    <col min="8194" max="8194" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8449" width="9" style="105"/>
+    <col min="8450" max="8450" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8705" width="9" style="105"/>
+    <col min="8706" max="8706" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8961" width="9" style="105"/>
+    <col min="8962" max="8962" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="8964" max="9217" width="9" style="105"/>
+    <col min="9218" max="9218" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9473" width="9" style="105"/>
+    <col min="9474" max="9474" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9729" width="9" style="105"/>
+    <col min="9730" max="9730" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9985" width="9" style="105"/>
+    <col min="9986" max="9986" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="9988" max="10241" width="9" style="105"/>
+    <col min="10242" max="10242" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10497" width="9" style="105"/>
+    <col min="10498" max="10498" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10753" width="9" style="105"/>
+    <col min="10754" max="10754" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="10756" max="11009" width="9" style="105"/>
+    <col min="11010" max="11010" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11265" width="9" style="105"/>
+    <col min="11266" max="11266" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11521" width="9" style="105"/>
+    <col min="11522" max="11522" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11777" width="9" style="105"/>
+    <col min="11778" max="11778" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11780" max="12033" width="9" style="105"/>
+    <col min="12034" max="12034" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12289" width="9" style="105"/>
+    <col min="12290" max="12290" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12545" width="9" style="105"/>
+    <col min="12546" max="12546" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12801" width="9" style="105"/>
+    <col min="12802" max="12802" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="12804" max="13057" width="9" style="105"/>
+    <col min="13058" max="13058" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13313" width="9" style="105"/>
+    <col min="13314" max="13314" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13569" width="9" style="105"/>
+    <col min="13570" max="13570" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13825" width="9" style="105"/>
+    <col min="13826" max="13826" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="13828" max="14081" width="9" style="105"/>
+    <col min="14082" max="14082" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14337" width="9" style="105"/>
+    <col min="14338" max="14338" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14593" width="9" style="105"/>
+    <col min="14594" max="14594" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14849" width="9" style="105"/>
+    <col min="14850" max="14850" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="14852" max="15105" width="9" style="105"/>
+    <col min="15106" max="15106" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15361" width="9" style="105"/>
+    <col min="15362" max="15362" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15617" width="9" style="105"/>
+    <col min="15618" max="15618" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15873" width="9" style="105"/>
+    <col min="15874" max="15874" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="15876" max="16129" width="9" style="105"/>
+    <col min="16130" max="16130" width="15.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.625" style="105" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="104" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="105" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="105" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="129" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="125"/>
+      <c r="C8" s="129"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="105" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="126">
+      <c r="B12" s="130">
         <v>41935</v>
       </c>
-      <c r="C12" s="126"/>
+      <c r="C12" s="130"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="105" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="129" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="129"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="105" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="127">
+      <c r="B20" s="131">
         <v>41935</v>
       </c>
-      <c r="C20" s="127"/>
+      <c r="C20" s="131"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4628,310 +4826,310 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="108" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="108" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="109" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="108" customWidth="1"/>
-    <col min="7" max="8" width="9" style="108"/>
-    <col min="9" max="9" width="11.375" style="108" customWidth="1"/>
-    <col min="10" max="10" width="30" style="108" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="108"/>
+    <col min="1" max="1" width="7.625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="105" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="106" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="105" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="105" customWidth="1"/>
+    <col min="7" max="8" width="9" style="105"/>
+    <col min="9" max="9" width="11.375" style="105" customWidth="1"/>
+    <col min="10" max="10" width="30" style="105" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="104" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="109" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="108" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="106" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="113">
+      <c r="A4" s="110">
         <v>1</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="115" t="e">
+      <c r="C4" s="112" t="e">
         <f>200/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="113">
+      <c r="A5" s="110">
         <v>2</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="119" t="e">
+      <c r="C5" s="116" t="e">
         <f>MODE(10,20,30,40)</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
-      <c r="H5" s="108" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="H5" s="105" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="113">
+      <c r="A6" s="110">
         <v>3</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="119" t="e">
+      <c r="C6" s="116" t="e">
         <f ca="1">HEIKIN(A1:C1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="118"/>
-      <c r="H6" s="108" t="s">
+      <c r="E6" s="114"/>
+      <c r="F6" s="115"/>
+      <c r="H6" s="105" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="113">
+      <c r="A7" s="110">
         <v>4</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="119" t="e">
+      <c r="C7" s="116" t="e">
         <f>SUM(A1:A3 C1:C3)</f>
         <v>#NULL!</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="113" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118"/>
-      <c r="H7" s="108" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="115"/>
+      <c r="H7" s="105" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="113">
+      <c r="A8" s="110">
         <v>5</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="119" t="e">
+      <c r="C8" s="116" t="e">
         <f>SMALL(A1:A3,C1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="113" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="113">
+      <c r="A9" s="110">
         <v>6</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="111" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="119" t="e">
+      <c r="C9" s="116" t="e">
         <f>INT(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="113" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="H9" s="120" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="H9" s="117" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="120" t="s">
+      <c r="I9" s="117" t="s">
         <v>264</v>
       </c>
-      <c r="J9" s="120" t="s">
+      <c r="J9" s="117" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="113">
+      <c r="A10" s="110">
         <v>7</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="111" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="119" t="e">
+      <c r="C10" s="116" t="e">
         <f>MAX("Dekiru")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="113" t="s">
         <v>266</v>
       </c>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="H10" s="117">
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="H10" s="114">
         <v>0</v>
       </c>
-      <c r="I10" s="117" t="e">
+      <c r="I10" s="114" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="J10" s="117" t="s">
+      <c r="J10" s="114" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="113">
+      <c r="A11" s="110">
         <v>8</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118"/>
-      <c r="H11" s="117">
+      <c r="B11" s="111"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
+      <c r="H11" s="114">
         <v>7</v>
       </c>
-      <c r="I11" s="117" t="e">
+      <c r="I11" s="114" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="117" t="s">
+      <c r="J11" s="114" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="113">
+      <c r="A12" s="110">
         <v>9</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="H12" s="117">
+      <c r="B12" s="111"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="H12" s="114">
         <v>15</v>
       </c>
-      <c r="I12" s="117" t="e">
+      <c r="I12" s="114" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="117" t="s">
+      <c r="J12" s="114" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="113">
+      <c r="A13" s="110">
         <v>10</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="H13" s="117">
+      <c r="B13" s="111"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="H13" s="114">
         <v>23</v>
       </c>
-      <c r="I13" s="117" t="e">
+      <c r="I13" s="114" t="e">
         <v>#REF!</v>
       </c>
-      <c r="J13" s="117" t="s">
+      <c r="J13" s="114" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H14" s="117">
+      <c r="H14" s="114">
         <v>29</v>
       </c>
-      <c r="I14" s="117" t="e">
+      <c r="I14" s="114" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="J14" s="117" t="s">
+      <c r="J14" s="114" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="105" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="114">
         <v>36</v>
       </c>
-      <c r="I15" s="117" t="e">
+      <c r="I15" s="114" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J15" s="117" t="s">
+      <c r="J15" s="114" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="117">
+      <c r="H16" s="114">
         <v>42</v>
       </c>
-      <c r="I16" s="117" t="e">
+      <c r="I16" s="114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J16" s="117" t="s">
+      <c r="J16" s="114" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="105" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="120" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H19" s="108" t="s">
+      <c r="H19" s="105" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="108" t="s">
+      <c r="H20" s="105" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="108" t="s">
+      <c r="H21" s="105" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4952,299 +5150,299 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="124" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="124" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="124" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="109" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="124" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="124" customWidth="1"/>
-    <col min="7" max="8" width="9" style="124"/>
-    <col min="9" max="9" width="11.375" style="124" customWidth="1"/>
-    <col min="10" max="10" width="30" style="124" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="124"/>
+    <col min="1" max="1" width="7.625" style="121" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="121" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="121" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="106" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="121" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="121" customWidth="1"/>
+    <col min="7" max="8" width="9" style="121"/>
+    <col min="9" max="9" width="11.375" style="121" customWidth="1"/>
+    <col min="10" max="10" width="30" style="121" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="121"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="104" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="109" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="108" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="106" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="113">
+      <c r="A4" s="110">
         <v>1</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="115" t="e">
+      <c r="C4" s="112" t="e">
         <f>200/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="113">
+      <c r="A5" s="110">
         <v>2</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="119" t="e">
+      <c r="C5" s="116" t="e">
         <f>MODE(10,20,30,40)</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
-      <c r="H5" s="124" t="s">
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="H5" s="121" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="113">
+      <c r="A6" s="110">
         <v>3</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="119" t="e">
+      <c r="C6" s="116" t="e">
         <f ca="1">HEIKIN(A1:C1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="118"/>
-      <c r="H6" s="124" t="s">
+      <c r="D6" s="113"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="115"/>
+      <c r="H6" s="121" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="113">
+      <c r="A7" s="110">
         <v>4</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="119" t="e">
+      <c r="C7" s="116" t="e">
         <f>SUM(A1:A3 C1:C3)</f>
         <v>#NULL!</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118"/>
-      <c r="H7" s="124" t="s">
+      <c r="D7" s="113"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="115"/>
+      <c r="H7" s="121" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="113">
+      <c r="A8" s="110">
         <v>5</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="119" t="e">
+      <c r="C8" s="116" t="e">
         <f>SMALL(A1:A3,C1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="113">
+      <c r="A9" s="110">
         <v>6</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="111" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="119" t="e">
+      <c r="C9" s="116" t="e">
         <f>INT(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="H9" s="120" t="s">
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="H9" s="117" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="120" t="s">
+      <c r="I9" s="117" t="s">
         <v>264</v>
       </c>
-      <c r="J9" s="120" t="s">
+      <c r="J9" s="117" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="113">
+      <c r="A10" s="110">
         <v>7</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="111" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="119" t="e">
+      <c r="C10" s="116" t="e">
         <f>MAX("Dekiru")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="H10" s="117">
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="H10" s="114">
         <v>0</v>
       </c>
-      <c r="I10" s="117" t="e">
+      <c r="I10" s="114" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="J10" s="117" t="s">
+      <c r="J10" s="114" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="113">
+      <c r="A11" s="110">
         <v>8</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118"/>
-      <c r="H11" s="117">
+      <c r="B11" s="111"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
+      <c r="H11" s="114">
         <v>7</v>
       </c>
-      <c r="I11" s="117" t="e">
+      <c r="I11" s="114" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="117" t="s">
+      <c r="J11" s="114" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="113">
+      <c r="A12" s="110">
         <v>9</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="H12" s="117">
+      <c r="B12" s="111"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="H12" s="114">
         <v>15</v>
       </c>
-      <c r="I12" s="117" t="e">
+      <c r="I12" s="114" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="117" t="s">
+      <c r="J12" s="114" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="113">
+      <c r="A13" s="110">
         <v>10</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="H13" s="117">
+      <c r="B13" s="111"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="H13" s="114">
         <v>23</v>
       </c>
-      <c r="I13" s="117" t="e">
+      <c r="I13" s="114" t="e">
         <v>#REF!</v>
       </c>
-      <c r="J13" s="117" t="s">
+      <c r="J13" s="114" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H14" s="117">
+      <c r="H14" s="114">
         <v>29</v>
       </c>
-      <c r="I14" s="117" t="e">
+      <c r="I14" s="114" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="J14" s="117" t="s">
+      <c r="J14" s="114" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="121" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="114">
         <v>36</v>
       </c>
-      <c r="I15" s="117" t="e">
+      <c r="I15" s="114" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J15" s="117" t="s">
+      <c r="J15" s="114" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="121" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="117">
+      <c r="H16" s="114">
         <v>42</v>
       </c>
-      <c r="I16" s="117" t="e">
+      <c r="I16" s="114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J16" s="117" t="s">
+      <c r="J16" s="114" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="121" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="120" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H19" s="124" t="s">
+      <c r="H19" s="121" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="124" t="s">
+      <c r="H20" s="121" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="124" t="s">
+      <c r="H21" s="121" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5319,7 +5517,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5337,28 +5535,28 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="38"/>
       <c r="H5" t="s">
         <v>4</v>
       </c>
@@ -5367,14 +5565,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="38"/>
       <c r="H6">
         <v>1</v>
       </c>
@@ -5383,58 +5581,58 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="38"/>
       <c r="H7">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="38"/>
       <c r="H8">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5445,10 +5643,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5456,7 +5654,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="55" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="53" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="26.875" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
@@ -5469,7 +5667,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5478,7 +5676,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5487,494 +5685,519 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="59">
         <v>123.456</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="59">
         <v>-123.456</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="55" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="59">
         <v>0</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="51"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="64">
         <v>123.456</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="55" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="64">
         <v>-123.456</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="55" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="64">
         <v>0</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="55" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="60">
         <v>123456789.012345</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="55" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="60">
         <v>-123456789.012345</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="61">
         <v>123.45789000000001</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="55" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="51"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="61">
         <v>-123.45789000000001</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="55" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="51"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="62">
         <v>12345789.012344999</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="55" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="51"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="62">
         <v>-12345789.012344999</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="55" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="51"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="63">
         <v>12345789.012344999</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="55" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="51"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="63">
         <v>-12345789.012344999</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="55" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="65">
         <v>99.9</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="55" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="38" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="65">
         <v>100</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="51"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="65">
         <v>100.1</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="55" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="51"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="71">
+      <c r="C21" s="68">
         <v>99</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="55" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="51"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="68">
         <v>100</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="51"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="66">
         <v>99</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="55" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="51"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="66">
         <v>100</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="55" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="51"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="67">
         <v>100</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="55" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="51"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="67">
         <v>100.1</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="55" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="51"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C27" s="130">
-        <v>1234567.8899999999</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>294</v>
-      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="G27" s="51"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="57"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="51"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="57"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="51"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="57"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="51"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="49"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="49"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="49"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5997,10 +6220,10 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="55" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="53" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.875" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="53" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -6009,7 +6232,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -6018,7 +6241,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -6027,271 +6250,271 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="57"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="54"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="54"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="54"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="54"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="57"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="54"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="57"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="54"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="57"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="38"/>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="57"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="38"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="57"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="54"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="57"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="54"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="57"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="54"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="54"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="57"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="54"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="57"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="54"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="54"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="57"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="54"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="57"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="54"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="57"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="50"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="50"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="50"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="40"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="50"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="40"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="50"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="40"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="50"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6325,7 +6548,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -6345,115 +6568,115 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="57"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="40"/>
+      <c r="F4" s="38"/>
       <c r="G4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="57"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="57"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="57"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="40"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="7" t="str">
+      <c r="D15" s="6" t="str">
         <f>"\"&amp;CHAR(9)&amp;CHAR(9)&amp;"12,345"</f>
         <v>\		12,345</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6476,7 +6699,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="55" customWidth="1"/>
+    <col min="4" max="4" width="26" style="53" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -6492,7 +6715,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -6501,7 +6724,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -6512,470 +6735,470 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>40968.081944444442</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>114</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>40968.873622685183</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="55" t="s">
         <v>115</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="75">
         <v>40968.081944444442</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="75">
         <v>40968.873622685183</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="55" t="s">
         <v>117</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="76">
         <v>40968.081944444442</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="55" t="s">
         <v>106</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="38" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="76">
         <v>40968.873622685183</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="55" t="s">
         <v>107</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="38" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="77">
         <v>40968.081944444442</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="55" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="77">
         <v>40968.873622685183</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="55" t="s">
         <v>109</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="78">
         <v>40968.081944444442</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="55" t="s">
         <v>118</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="38" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="78">
         <v>40968.873622685183</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="55" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="38" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="79">
         <v>40968.081944444442</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="55" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="38" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="79">
         <v>40968.873622685183</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="55" t="s">
         <v>111</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="38" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="83">
+      <c r="C16" s="80">
         <v>40968.081944444442</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="80">
         <v>40968.873622685183</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="55" t="s">
         <v>113</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="81">
         <v>42064</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="55" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="38" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="81">
         <v>42065</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="55" t="s">
         <v>127</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="38" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="81">
         <v>42066</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="55" t="s">
         <v>128</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="38" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="84">
+      <c r="C21" s="81">
         <v>42067</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="55" t="s">
         <v>129</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="38" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="81">
         <v>42068</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="55" t="s">
         <v>130</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="38" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="81">
         <v>42069</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="55" t="s">
         <v>131</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="38" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="81">
         <v>42070</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="55" t="s">
         <v>132</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="38" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="85">
+      <c r="C25" s="82">
         <v>42064</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="55" t="s">
         <v>133</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="82">
         <v>42065</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="55" t="s">
         <v>134</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="85">
+      <c r="C27" s="82">
         <v>42066</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="55" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="82">
         <v>42067</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="55" t="s">
         <v>136</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="85">
+      <c r="C29" s="82">
         <v>42068</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="55" t="s">
         <v>137</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="38" t="s">
         <v>141</v>
       </c>
       <c r="H29" t="s">
@@ -6983,344 +7206,344 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="85">
+      <c r="C30" s="82">
         <v>42069</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="55" t="s">
         <v>138</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>28</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="85">
+      <c r="C31" s="82">
         <v>42070</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="55" t="s">
         <v>139</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="87">
+      <c r="C32" s="84">
         <v>42064</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="55" t="s">
         <v>146</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="38" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="87">
+      <c r="C33" s="84">
         <v>42065</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="55" t="s">
         <v>147</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="38" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>31</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="87">
+      <c r="C34" s="84">
         <v>42066</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="55" t="s">
         <v>148</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="38" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>32</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="87">
+      <c r="C35" s="84">
         <v>42067</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="55" t="s">
         <v>149</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="38" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>33</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C36" s="84">
         <v>42068</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="55" t="s">
         <v>150</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="38" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>34</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="84">
         <v>42069</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="55" t="s">
         <v>151</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="38" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>35</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="84">
         <v>42070</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="55" t="s">
         <v>152</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="38" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>36</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="86">
+      <c r="C39" s="83">
         <v>42064</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="55" t="s">
         <v>153</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="40" t="s">
+      <c r="F39" s="38" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>37</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="86">
+      <c r="C40" s="83">
         <v>42065</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="55" t="s">
         <v>154</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="38" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>38</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="86">
+      <c r="C41" s="83">
         <v>42066</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="55" t="s">
         <v>155</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="38" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>39</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="86">
+      <c r="C42" s="83">
         <v>42067</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="55" t="s">
         <v>156</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="38" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>40</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="86">
+      <c r="C43" s="83">
         <v>42068</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="55" t="s">
         <v>157</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="40" t="s">
+      <c r="F43" s="38" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>41</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="86">
+      <c r="C44" s="83">
         <v>42069</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="55" t="s">
         <v>158</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="38" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>42</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="86">
+      <c r="C45" s="83">
         <v>42070</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="55" t="s">
         <v>159</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="38" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>43</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="88">
+      <c r="C46" s="85">
         <v>42070</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="55" t="s">
         <v>164</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="38" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>44</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="89">
+      <c r="C47" s="86">
         <v>42070</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="55" t="s">
         <v>165</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="40" t="s">
+      <c r="F47" s="38" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>45</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="90">
+      <c r="C48" s="87">
         <v>0</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="38" t="s">
         <v>169</v>
       </c>
       <c r="G48" t="s">
@@ -7328,146 +7551,146 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>46</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="90">
+      <c r="C49" s="87">
         <v>1</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="38" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>47</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="90">
+      <c r="C50" s="87">
         <v>4594.9999884259259</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>177</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="38" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>48</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="90">
+      <c r="C51" s="87">
         <v>4595</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="38" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>49</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="90">
+      <c r="C52" s="87">
         <v>9855.999988425925</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>179</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="40" t="s">
+      <c r="F52" s="38" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>50</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="90">
+      <c r="C53" s="87">
         <v>9856</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>180</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="40" t="s">
+      <c r="F53" s="38" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>51</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="90">
+      <c r="C54" s="87">
         <v>32515.999988425927</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>181</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="38" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>52</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="90">
+      <c r="C55" s="87">
         <v>32516</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="D55" s="55" t="s">
         <v>182</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="40" t="s">
+      <c r="F55" s="38" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>53</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="91">
+      <c r="C56" s="88">
         <v>32516</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="55" t="s">
         <v>183</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="40" t="s">
+      <c r="F56" s="38" t="s">
         <v>172</v>
       </c>
       <c r="G56" t="s">
@@ -7475,164 +7698,164 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>54</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="92">
+      <c r="C57" s="89">
         <v>0</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="55" t="s">
         <v>200</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="38" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>55</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="92">
+      <c r="C58" s="89">
         <v>1</v>
       </c>
-      <c r="D58" s="57" t="s">
+      <c r="D58" s="55" t="s">
         <v>184</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="40" t="s">
+      <c r="F58" s="38" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>56</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="92">
+      <c r="C59" s="89">
         <v>4594.9999884259259</v>
       </c>
-      <c r="D59" s="57" t="s">
+      <c r="D59" s="55" t="s">
         <v>185</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="40" t="s">
+      <c r="F59" s="38" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>57</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="92">
+      <c r="C60" s="89">
         <v>4595</v>
       </c>
-      <c r="D60" s="57" t="s">
+      <c r="D60" s="55" t="s">
         <v>186</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="38" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>58</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="92">
+      <c r="C61" s="89">
         <v>9855.999988425925</v>
       </c>
-      <c r="D61" s="57" t="s">
+      <c r="D61" s="55" t="s">
         <v>187</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="40" t="s">
+      <c r="F61" s="38" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>59</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="92">
+      <c r="C62" s="89">
         <v>9856</v>
       </c>
-      <c r="D62" s="57" t="s">
+      <c r="D62" s="55" t="s">
         <v>188</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="40" t="s">
+      <c r="F62" s="38" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>60</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="92">
+      <c r="C63" s="89">
         <v>32515.999988425927</v>
       </c>
-      <c r="D63" s="57" t="s">
+      <c r="D63" s="55" t="s">
         <v>189</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="38" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>61</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="92">
+      <c r="C64" s="89">
         <v>32516</v>
       </c>
-      <c r="D64" s="57" t="s">
+      <c r="D64" s="55" t="s">
         <v>190</v>
       </c>
       <c r="E64" s="2"/>
-      <c r="F64" s="40" t="s">
+      <c r="F64" s="38" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>62</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="94">
+      <c r="C65" s="91">
         <v>0</v>
       </c>
-      <c r="D65" s="57" t="s">
+      <c r="D65" s="55" t="s">
         <v>201</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="40" t="s">
+      <c r="F65" s="38" t="s">
         <v>175</v>
       </c>
       <c r="G65" t="s">
@@ -7640,354 +7863,354 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>63</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="93">
+      <c r="C66" s="90">
         <v>1</v>
       </c>
-      <c r="D66" s="57" t="s">
+      <c r="D66" s="55" t="s">
         <v>191</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>64</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C67" s="93">
+      <c r="C67" s="90">
         <v>4594.9999884259259</v>
       </c>
-      <c r="D67" s="57" t="s">
+      <c r="D67" s="55" t="s">
         <v>192</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="40" t="s">
+      <c r="F67" s="38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>65</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="93">
+      <c r="C68" s="90">
         <v>4595</v>
       </c>
-      <c r="D68" s="57" t="s">
+      <c r="D68" s="55" t="s">
         <v>193</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="40" t="s">
+      <c r="F68" s="38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>66</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="93">
+      <c r="C69" s="90">
         <v>9855.999988425925</v>
       </c>
-      <c r="D69" s="57" t="s">
+      <c r="D69" s="55" t="s">
         <v>194</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="40" t="s">
+      <c r="F69" s="38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>67</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="93">
+      <c r="C70" s="90">
         <v>9856</v>
       </c>
-      <c r="D70" s="57" t="s">
+      <c r="D70" s="55" t="s">
         <v>195</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="40" t="s">
+      <c r="F70" s="38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>68</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="93">
+      <c r="C71" s="90">
         <v>32515.999988425927</v>
       </c>
-      <c r="D71" s="57" t="s">
+      <c r="D71" s="55" t="s">
         <v>196</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="40" t="s">
+      <c r="F71" s="38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>69</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C72" s="93">
+      <c r="C72" s="90">
         <v>32516</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="55" t="s">
         <v>197</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="40" t="s">
+      <c r="F72" s="38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>70</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="95">
+      <c r="C73" s="92">
         <v>21894.999988425927</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="55" t="s">
         <v>205</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="40" t="s">
+      <c r="F73" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>71</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="95">
+      <c r="C74" s="92">
         <v>32518</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="55" t="s">
         <v>206</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="40" t="s">
+      <c r="F74" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>72</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C75" s="96">
+      <c r="C75" s="93">
         <v>21894.999988425927</v>
       </c>
-      <c r="D75" s="57" t="s">
+      <c r="D75" s="55" t="s">
         <v>214</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="40" t="s">
+      <c r="F75" s="38" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="96">
+      <c r="C76" s="93">
         <v>32518</v>
       </c>
-      <c r="D76" s="57" t="s">
+      <c r="D76" s="55" t="s">
         <v>207</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="40" t="s">
+      <c r="F76" s="38" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>74</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C77" s="97">
+      <c r="C77" s="94">
         <v>21894.999988425927</v>
       </c>
-      <c r="D77" s="57" t="s">
+      <c r="D77" s="55" t="s">
         <v>208</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="40" t="s">
+      <c r="F77" s="38" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>75</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="97">
+      <c r="C78" s="94">
         <v>32518</v>
       </c>
-      <c r="D78" s="57" t="s">
+      <c r="D78" s="55" t="s">
         <v>209</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="40" t="s">
+      <c r="F78" s="38" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>76</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C79" s="128">
+      <c r="C79" s="122">
         <v>42070</v>
       </c>
-      <c r="D79" s="57" t="s">
+      <c r="D79" s="55" t="s">
         <v>159</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="40" t="s">
+      <c r="F79" s="38" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>77</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C80" s="129">
+      <c r="C80" s="123">
         <v>42070</v>
       </c>
-      <c r="D80" s="57" t="s">
+      <c r="D80" s="55" t="s">
         <v>159</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="40" t="s">
+      <c r="F80" s="38" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>78</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="57"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="55"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="40"/>
+      <c r="F81" s="38"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>79</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="57"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="40"/>
+      <c r="F82" s="38"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>80</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="57"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="55"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="40"/>
+      <c r="F83" s="38"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>81</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="57"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="40"/>
+      <c r="F84" s="38"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>82</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="57"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="40"/>
+      <c r="F85" s="38"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>83</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="57"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="40"/>
+      <c r="F86" s="38"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>84</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="57"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="40"/>
+      <c r="F87" s="38"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>85</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="57"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="40"/>
+      <c r="F88" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8010,7 +8233,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="53" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -8026,7 +8249,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -8035,7 +8258,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -8046,436 +8269,436 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="69">
         <v>0.37722222222222218</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="40"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="69">
         <v>1.0855555555555556</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="55" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="70">
         <v>0.37722222222222218</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="70">
         <v>1.0855555555555556</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="55" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="71">
         <v>2.2222222222222222E-3</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="55" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="71">
         <v>4.5277777777777778E-2</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="55" t="s">
         <v>78</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C10" s="72">
         <v>2.2222222222222222E-3</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="55" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="72">
         <v>4.5277777777777778E-2</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="55" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="73">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="55" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="73">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="55" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="40"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="74">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="55" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="40"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="74">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="55" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="40"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="58">
         <v>40968.542824074073</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>46</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="58">
         <v>0</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="55" t="s">
         <v>85</v>
       </c>
       <c r="E17" s="2">
         <v>46</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="58">
         <v>0.99998842592592585</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="55" t="s">
         <v>86</v>
       </c>
       <c r="E18" s="2">
         <v>46</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="58">
         <v>1</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="55" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="2">
         <v>46</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="58">
         <v>1.0416666666666667</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="55" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="2">
         <v>46</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="58">
         <v>59.999988425925928</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="55" t="s">
         <v>90</v>
       </c>
       <c r="E21" s="2">
         <v>46</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="58">
         <v>59</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="55" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="2">
         <v>46</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="58">
         <v>61.999988425925928</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="55" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="2">
         <v>46</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="40"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="57"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="40"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="57"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="40"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="57"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="40"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="57"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="40"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="57"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="40"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="57"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="40"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>28</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="57"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="40"/>
+      <c r="F31" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8509,7 +8732,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -8529,54 +8752,54 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="40"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8599,7 +8822,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="102" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="99" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
@@ -8610,7 +8833,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -8619,7 +8842,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="100" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -8630,168 +8853,168 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="95">
         <v>3.25</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="101" t="s">
         <v>219</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="95">
         <v>-3.25</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="101" t="s">
         <v>220</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="96">
         <v>3.25</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="101" t="s">
         <v>222</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="96">
         <v>-3.25</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="101" t="s">
         <v>223</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="97">
         <v>3.25</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="101" t="s">
         <v>224</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="38" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="97">
         <v>-3.25</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="101" t="s">
         <v>225</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="38" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="98">
         <v>3.25</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="101" t="s">
         <v>221</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="98">
         <v>-3.25</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="101" t="s">
         <v>226</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="38" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="104"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="104"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="40"/>
+      <c r="F13" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/data/cell_format_2010_custom.xlsx
+++ b/src/test/data/cell_format_2010_custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="323">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -1852,6 +1852,52 @@
   <si>
     <t>[DBNum1][$-411]"["0.0"]"</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明33.3.1 00:00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←存在しない日付</t>
+    <rPh sb="1" eb="3">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明治33.3.1 00:00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明37.1.1 00:00:00</t>
+  </si>
+  <si>
+    <t>明37.2.29 00:00:00</t>
+  </si>
+  <si>
+    <t>明治37.1.1 00:00:00</t>
+  </si>
+  <si>
+    <t>明治37.2.29 00:00:00</t>
+  </si>
+  <si>
+    <t>33.3.1 00:00:00</t>
+  </si>
+  <si>
+    <t>37.1.1 00:00:00</t>
+  </si>
+  <si>
+    <t>37.2.29 00:00:00</t>
+  </si>
+  <si>
+    <t>33.3.1 00:00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接頭語： @</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1993,7 @@
     <numFmt numFmtId="256" formatCode="[DBNum2][$-411]&quot;[&quot;#0&quot;]&quot;"/>
     <numFmt numFmtId="257" formatCode="[DBNum2][$-411]&quot;[&quot;#&quot;]&quot;"/>
     <numFmt numFmtId="258" formatCode="[DBNum2][$-411]&quot;[&quot;0.0&quot;]&quot;"/>
-    <numFmt numFmtId="260" formatCode="[DBNum1][$-411]&quot;[&quot;0.0&quot;]&quot;"/>
+    <numFmt numFmtId="259" formatCode="[DBNum1][$-411]&quot;[&quot;0.0&quot;]&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -2174,11 +2220,11 @@
     <xf numFmtId="255" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="256" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="257" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="258" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="259" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="250" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="258" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="260" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3536,7 +3582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F9"/>
     </sheetView>
   </sheetViews>
@@ -3618,7 +3664,7 @@
       <c r="B6" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C6" s="130">
         <v>0</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -3672,7 +3718,7 @@
       <c r="B9" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="132">
+      <c r="C9" s="129">
         <v>0</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -3835,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3906,7 +3952,9 @@
         <v>235</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="38" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
@@ -3922,7 +3970,9 @@
         <v>239</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
@@ -4066,7 +4116,7 @@
       <c r="B7" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C7" s="133">
+      <c r="C7" s="130">
         <v>0</v>
       </c>
       <c r="D7" s="55" t="s">
@@ -4120,7 +4170,7 @@
       <c r="B10" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C10" s="132">
+      <c r="C10" s="129">
         <v>0</v>
       </c>
       <c r="D10" s="55" t="s">
@@ -4736,12 +4786,12 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="105" t="s">
@@ -4749,14 +4799,14 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="129"/>
+      <c r="C8" s="131"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="105" t="s">
@@ -4764,14 +4814,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="130">
+      <c r="B12" s="132">
         <v>41935</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="132"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="105" t="s">
@@ -4779,14 +4829,14 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="129"/>
+      <c r="C16" s="131"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="105" t="s">
@@ -4794,14 +4844,14 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="131">
+      <c r="B20" s="133">
         <v>41935</v>
       </c>
-      <c r="C20" s="131"/>
+      <c r="C20" s="133"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5645,8 +5695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6182,7 +6232,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="132"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="55"/>
       <c r="E32" s="2"/>
       <c r="F32" s="38"/>
@@ -6688,10 +6738,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7576,15 +7626,18 @@
         <v>168</v>
       </c>
       <c r="C50" s="87">
-        <v>4594.9999884259259</v>
+        <v>60</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="38" t="s">
         <v>169</v>
       </c>
+      <c r="G50" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
@@ -7594,10 +7647,10 @@
         <v>168</v>
       </c>
       <c r="C51" s="87">
-        <v>4595</v>
+        <v>61</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="38" t="s">
@@ -7612,10 +7665,10 @@
         <v>168</v>
       </c>
       <c r="C52" s="87">
-        <v>9855.999988425925</v>
+        <v>1462</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="38" t="s">
@@ -7630,10 +7683,10 @@
         <v>168</v>
       </c>
       <c r="C53" s="87">
-        <v>9856</v>
+        <v>1521</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="38" t="s">
@@ -7648,10 +7701,10 @@
         <v>168</v>
       </c>
       <c r="C54" s="87">
-        <v>32515.999988425927</v>
+        <v>4594.9999884259259</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="38" t="s">
@@ -7666,10 +7719,10 @@
         <v>168</v>
       </c>
       <c r="C55" s="87">
-        <v>32516</v>
-      </c>
-      <c r="D55" s="55" t="s">
-        <v>182</v>
+        <v>4595</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="38" t="s">
@@ -7681,20 +7734,17 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" s="88">
-        <v>32516</v>
-      </c>
-      <c r="D56" s="55" t="s">
-        <v>183</v>
+        <v>168</v>
+      </c>
+      <c r="C56" s="87">
+        <v>9855.999988425925</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G56" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -7702,17 +7752,17 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" s="89">
-        <v>0</v>
-      </c>
-      <c r="D57" s="55" t="s">
-        <v>200</v>
+        <v>168</v>
+      </c>
+      <c r="C57" s="87">
+        <v>9856</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -7720,17 +7770,17 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="89">
-        <v>1</v>
-      </c>
-      <c r="D58" s="55" t="s">
-        <v>184</v>
+        <v>168</v>
+      </c>
+      <c r="C58" s="87">
+        <v>32515.999988425927</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -7738,17 +7788,17 @@
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="89">
-        <v>4594.9999884259259</v>
+        <v>168</v>
+      </c>
+      <c r="C59" s="87">
+        <v>32516</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -7756,17 +7806,20 @@
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" s="89">
-        <v>4595</v>
+        <v>170</v>
+      </c>
+      <c r="C60" s="88">
+        <v>32516</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="G60" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -7777,10 +7830,10 @@
         <v>173</v>
       </c>
       <c r="C61" s="89">
-        <v>9855.999988425925</v>
+        <v>0</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="38" t="s">
@@ -7795,10 +7848,10 @@
         <v>173</v>
       </c>
       <c r="C62" s="89">
-        <v>9856</v>
+        <v>1</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="38" t="s">
@@ -7813,15 +7866,18 @@
         <v>173</v>
       </c>
       <c r="C63" s="89">
-        <v>32515.999988425927</v>
+        <v>60</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="38" t="s">
         <v>171</v>
       </c>
+      <c r="G63" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
@@ -7831,35 +7887,35 @@
         <v>173</v>
       </c>
       <c r="C64" s="89">
-        <v>32516</v>
+        <v>61</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>190</v>
+        <v>313</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="38" t="s">
         <v>171</v>
       </c>
+      <c r="G64" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C65" s="91">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="C65" s="89">
+        <v>1462</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="G65" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -7867,17 +7923,17 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C66" s="90">
-        <v>1</v>
+        <v>173</v>
+      </c>
+      <c r="C66" s="89">
+        <v>1521</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>191</v>
+        <v>317</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="38" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -7885,17 +7941,17 @@
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C67" s="90">
+        <v>173</v>
+      </c>
+      <c r="C67" s="89">
         <v>4594.9999884259259</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="38" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -7903,17 +7959,17 @@
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C68" s="90">
+        <v>173</v>
+      </c>
+      <c r="C68" s="89">
         <v>4595</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="38" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -7921,17 +7977,17 @@
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C69" s="90">
+        <v>173</v>
+      </c>
+      <c r="C69" s="89">
         <v>9855.999988425925</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="38" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -7939,17 +7995,17 @@
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C70" s="90">
+        <v>173</v>
+      </c>
+      <c r="C70" s="89">
         <v>9856</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="38" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -7957,17 +8013,17 @@
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C71" s="90">
+        <v>173</v>
+      </c>
+      <c r="C71" s="89">
         <v>32515.999988425927</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="38" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -7975,17 +8031,17 @@
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C72" s="90">
+        <v>173</v>
+      </c>
+      <c r="C72" s="89">
         <v>32516</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="38" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -7993,17 +8049,20 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="92">
-        <v>21894.999988425927</v>
+        <v>174</v>
+      </c>
+      <c r="C73" s="91">
+        <v>0</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="38" t="s">
-        <v>210</v>
+        <v>175</v>
+      </c>
+      <c r="G73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -8011,17 +8070,17 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" s="92">
-        <v>32518</v>
+        <v>174</v>
+      </c>
+      <c r="C74" s="90">
+        <v>1</v>
       </c>
       <c r="D74" s="55" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="38" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -8029,17 +8088,17 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C75" s="93">
-        <v>21894.999988425927</v>
+        <v>174</v>
+      </c>
+      <c r="C75" s="90">
+        <v>60</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="38" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -8047,17 +8106,17 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C76" s="93">
-        <v>32518</v>
+        <v>174</v>
+      </c>
+      <c r="C76" s="90">
+        <v>61</v>
       </c>
       <c r="D76" s="55" t="s">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="38" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -8065,17 +8124,17 @@
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" s="94">
-        <v>21894.999988425927</v>
+        <v>174</v>
+      </c>
+      <c r="C77" s="90">
+        <v>1462</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="38" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -8083,17 +8142,17 @@
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C78" s="94">
-        <v>32518</v>
+        <v>174</v>
+      </c>
+      <c r="C78" s="90">
+        <v>1521</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>209</v>
+        <v>320</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="38" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -8101,17 +8160,17 @@
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C79" s="122">
-        <v>42070</v>
+        <v>174</v>
+      </c>
+      <c r="C79" s="90">
+        <v>4594.9999884259259</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="38" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -8119,98 +8178,314 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C80" s="123">
-        <v>42070</v>
+        <v>174</v>
+      </c>
+      <c r="C80" s="90">
+        <v>4595</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="38" t="s">
-        <v>291</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>78</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="55"/>
+      <c r="B81" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="90">
+        <v>9855.999988425925</v>
+      </c>
+      <c r="D81" s="55" t="s">
+        <v>194</v>
+      </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="38"/>
+      <c r="F81" s="38" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>79</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="55"/>
+      <c r="B82" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="90">
+        <v>9856</v>
+      </c>
+      <c r="D82" s="55" t="s">
+        <v>195</v>
+      </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="38"/>
+      <c r="F82" s="38" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>80</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="55"/>
+      <c r="B83" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="90">
+        <v>32515.999988425927</v>
+      </c>
+      <c r="D83" s="55" t="s">
+        <v>196</v>
+      </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="38"/>
+      <c r="F83" s="38" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>81</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="55"/>
+      <c r="B84" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="90">
+        <v>32516</v>
+      </c>
+      <c r="D84" s="55" t="s">
+        <v>197</v>
+      </c>
       <c r="E84" s="2"/>
-      <c r="F84" s="38"/>
+      <c r="F84" s="38" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>82</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="55"/>
+      <c r="B85" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="92">
+        <v>21894.999988425927</v>
+      </c>
+      <c r="D85" s="55" t="s">
+        <v>205</v>
+      </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="38"/>
+      <c r="F85" s="38" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>83</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="55"/>
+      <c r="B86" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="92">
+        <v>32518</v>
+      </c>
+      <c r="D86" s="55" t="s">
+        <v>206</v>
+      </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="38"/>
+      <c r="F86" s="38" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>84</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="55"/>
+      <c r="B87" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" s="93">
+        <v>21894.999988425927</v>
+      </c>
+      <c r="D87" s="55" t="s">
+        <v>214</v>
+      </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="38"/>
+      <c r="F87" s="38" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>85</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="55"/>
+      <c r="B88" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" s="93">
+        <v>32518</v>
+      </c>
+      <c r="D88" s="55" t="s">
+        <v>207</v>
+      </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="38"/>
+      <c r="F88" s="38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="5">
+        <v>86</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" s="94">
+        <v>21894.999988425927</v>
+      </c>
+      <c r="D89" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="5">
+        <v>87</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="94">
+        <v>32518</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="5">
+        <v>88</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="122">
+        <v>42070</v>
+      </c>
+      <c r="D91" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="38" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="5">
+        <v>89</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" s="123">
+        <v>42070</v>
+      </c>
+      <c r="D92" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="5">
+        <v>90</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="38"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="5">
+        <v>91</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="38"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="5">
+        <v>92</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="38"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="5">
+        <v>93</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="38"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="5">
+        <v>94</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="38"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="5">
+        <v>95</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="38"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="5">
+        <v>96</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="38"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="5">
+        <v>97</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/data/cell_format_2010_custom.xlsx
+++ b/src/test/data/cell_format_2010_custom.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14EE920-3441-471E-82B7-3D1625BD362C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="7980" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="29790" yWindow="-120" windowWidth="27930" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト" sheetId="16" r:id="rId1"/>
@@ -27,12 +28,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId18"/>
     <sheet name="Sheet16" sheetId="17" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="330">
   <si>
     <t>POICellFormatterのテスト用シート</t>
     <rPh sb="20" eb="21">
@@ -1898,12 +1899,42 @@
   </si>
   <si>
     <t>接頭語： @</t>
+  </si>
+  <si>
+    <t>平31.4.30 23:59:59</t>
+  </si>
+  <si>
+    <t>令1.5.1 00:00:00</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平成31.4.30 23:59:59</t>
+  </si>
+  <si>
+    <t>令和二年八月十五日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>令和弐年八月壱拾伍日</t>
+  </si>
+  <si>
+    <t>令和１年５月１日</t>
+  </si>
+  <si>
+    <t>令和01.5.1 00:00:00</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="89">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
@@ -2082,7 +2113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2119,7 +2150,6 @@
     <xf numFmtId="194" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="195" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="196" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="197" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2134,13 +2164,9 @@
     <xf numFmtId="204" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="205" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="206" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2186,9 +2212,6 @@
     <xf numFmtId="244" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="245" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="246" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="247" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="248" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2211,8 +2234,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="202" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="203" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="251" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="252" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="253" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2228,13 +2249,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2257,7 +2281,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2300,7 +2330,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2343,7 +2379,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2381,7 +2423,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2418,7 +2466,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2455,7 +2509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2492,7 +2552,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2529,7 +2595,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2566,7 +2638,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2603,7 +2681,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2640,7 +2724,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2677,7 +2767,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2714,7 +2810,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2756,7 +2858,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2799,7 +2907,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2842,7 +2956,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2880,7 +3000,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2923,7 +3049,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2966,7 +3098,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3009,7 +3147,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3047,7 +3191,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3095,7 +3245,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3138,7 +3294,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3176,7 +3338,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3224,7 +3392,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3267,7 +3441,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3294,7 +3474,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3336,7 +3516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3369,9 +3549,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3404,6 +3601,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3579,11 +3793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F9"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3591,7 +3805,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="46" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
@@ -3611,7 +3825,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3628,14 +3842,14 @@
       <c r="B4" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="125">
+      <c r="C4" s="115">
         <v>0</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="50" t="s">
         <v>301</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3646,14 +3860,14 @@
       <c r="B5" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="116">
         <v>0</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>297</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3664,14 +3878,14 @@
       <c r="B6" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C6" s="130">
+      <c r="C6" s="120">
         <v>0</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="50" t="s">
         <v>307</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3682,14 +3896,14 @@
       <c r="B7" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C7" s="127">
+      <c r="C7" s="117">
         <v>0</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="50" t="s">
         <v>301</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3700,14 +3914,14 @@
       <c r="B8" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="118">
         <v>0</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="50" t="s">
         <v>297</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3718,14 +3932,14 @@
       <c r="B9" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="129">
+      <c r="C9" s="119">
         <v>0</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="50" t="s">
         <v>307</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="37" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3735,9 +3949,9 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="55"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
@@ -3745,9 +3959,9 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
@@ -3755,9 +3969,9 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="55"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
@@ -3765,9 +3979,9 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="55"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3777,7 +3991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3824,50 +4038,50 @@
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="35"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="36"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="37"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="37"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="33"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3878,10 +4092,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3927,14 +4141,14 @@
       <c r="B4" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="50" t="s">
         <v>233</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3945,14 +4159,14 @@
       <c r="B5" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="95" t="s">
         <v>234</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3963,14 +4177,14 @@
       <c r="B6" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="103" t="b">
+      <c r="C6" s="95" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3979,30 +4193,30 @@
         <v>4</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="103"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="38"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="38"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4013,7 +4227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4062,14 +4276,14 @@
       <c r="B4" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="124">
+      <c r="C4" s="114">
         <v>1234567.8899999999</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="50" t="s">
         <v>294</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4080,14 +4294,14 @@
       <c r="B5" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="115">
         <v>0</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>301</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4098,14 +4312,14 @@
       <c r="B6" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="116">
         <v>0</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="50" t="s">
         <v>297</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4116,14 +4330,14 @@
       <c r="B7" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C7" s="130">
+      <c r="C7" s="120">
         <v>0</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="50" t="s">
         <v>307</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4134,14 +4348,14 @@
       <c r="B8" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C8" s="127">
+      <c r="C8" s="117">
         <v>0</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="50" t="s">
         <v>301</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4152,14 +4366,14 @@
       <c r="B9" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C9" s="128">
+      <c r="C9" s="118">
         <v>0</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="50" t="s">
         <v>297</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="37" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4170,14 +4384,14 @@
       <c r="B10" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C10" s="129">
+      <c r="C10" s="119">
         <v>0</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="50" t="s">
         <v>307</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4186,130 +4400,130 @@
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="42"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="6"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="42"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="43"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="43"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="38"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="43"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="6"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="38"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="44"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="44"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="6"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="44"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="6"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="6"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="45"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="38"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="45"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="6"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="38"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="39"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="6"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="38"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="39"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="6"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4320,7 +4534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4332,7 +4546,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="46" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
@@ -4352,7 +4566,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -4367,200 +4581,200 @@
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="55"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="55"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="55"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="55"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="55"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="55"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="55"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="38"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="38"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="55"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="38"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="55"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="38"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="38"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="55"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4571,7 +4785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4580,278 +4794,278 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="105"/>
-    <col min="2" max="2" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="4" max="257" width="9" style="105"/>
-    <col min="258" max="258" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="260" max="513" width="9" style="105"/>
-    <col min="514" max="514" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="516" max="769" width="9" style="105"/>
-    <col min="770" max="770" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="772" max="1025" width="9" style="105"/>
-    <col min="1026" max="1026" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1281" width="9" style="105"/>
-    <col min="1282" max="1282" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1537" width="9" style="105"/>
-    <col min="1538" max="1538" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1793" width="9" style="105"/>
-    <col min="1794" max="1794" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="1796" max="2049" width="9" style="105"/>
-    <col min="2050" max="2050" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2305" width="9" style="105"/>
-    <col min="2306" max="2306" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2561" width="9" style="105"/>
-    <col min="2562" max="2562" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2817" width="9" style="105"/>
-    <col min="2818" max="2818" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="2820" max="3073" width="9" style="105"/>
-    <col min="3074" max="3074" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3329" width="9" style="105"/>
-    <col min="3330" max="3330" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3585" width="9" style="105"/>
-    <col min="3586" max="3586" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3841" width="9" style="105"/>
-    <col min="3842" max="3842" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="3844" max="4097" width="9" style="105"/>
-    <col min="4098" max="4098" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4353" width="9" style="105"/>
-    <col min="4354" max="4354" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4609" width="9" style="105"/>
-    <col min="4610" max="4610" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4865" width="9" style="105"/>
-    <col min="4866" max="4866" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="4868" max="5121" width="9" style="105"/>
-    <col min="5122" max="5122" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5377" width="9" style="105"/>
-    <col min="5378" max="5378" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5633" width="9" style="105"/>
-    <col min="5634" max="5634" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5889" width="9" style="105"/>
-    <col min="5890" max="5890" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="5892" max="6145" width="9" style="105"/>
-    <col min="6146" max="6146" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6401" width="9" style="105"/>
-    <col min="6402" max="6402" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6657" width="9" style="105"/>
-    <col min="6658" max="6658" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6913" width="9" style="105"/>
-    <col min="6914" max="6914" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="6916" max="7169" width="9" style="105"/>
-    <col min="7170" max="7170" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7425" width="9" style="105"/>
-    <col min="7426" max="7426" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7681" width="9" style="105"/>
-    <col min="7682" max="7682" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7937" width="9" style="105"/>
-    <col min="7938" max="7938" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="7940" max="8193" width="9" style="105"/>
-    <col min="8194" max="8194" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8449" width="9" style="105"/>
-    <col min="8450" max="8450" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8705" width="9" style="105"/>
-    <col min="8706" max="8706" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8961" width="9" style="105"/>
-    <col min="8962" max="8962" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="8964" max="9217" width="9" style="105"/>
-    <col min="9218" max="9218" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9473" width="9" style="105"/>
-    <col min="9474" max="9474" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9729" width="9" style="105"/>
-    <col min="9730" max="9730" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9985" width="9" style="105"/>
-    <col min="9986" max="9986" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="9988" max="10241" width="9" style="105"/>
-    <col min="10242" max="10242" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10497" width="9" style="105"/>
-    <col min="10498" max="10498" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10753" width="9" style="105"/>
-    <col min="10754" max="10754" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="10756" max="11009" width="9" style="105"/>
-    <col min="11010" max="11010" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11265" width="9" style="105"/>
-    <col min="11266" max="11266" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11521" width="9" style="105"/>
-    <col min="11522" max="11522" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11777" width="9" style="105"/>
-    <col min="11778" max="11778" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="11780" max="12033" width="9" style="105"/>
-    <col min="12034" max="12034" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12289" width="9" style="105"/>
-    <col min="12290" max="12290" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12545" width="9" style="105"/>
-    <col min="12546" max="12546" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12801" width="9" style="105"/>
-    <col min="12802" max="12802" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="12804" max="13057" width="9" style="105"/>
-    <col min="13058" max="13058" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13313" width="9" style="105"/>
-    <col min="13314" max="13314" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13569" width="9" style="105"/>
-    <col min="13570" max="13570" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13825" width="9" style="105"/>
-    <col min="13826" max="13826" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="13828" max="14081" width="9" style="105"/>
-    <col min="14082" max="14082" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14337" width="9" style="105"/>
-    <col min="14338" max="14338" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14593" width="9" style="105"/>
-    <col min="14594" max="14594" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14849" width="9" style="105"/>
-    <col min="14850" max="14850" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="14852" max="15105" width="9" style="105"/>
-    <col min="15106" max="15106" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15361" width="9" style="105"/>
-    <col min="15362" max="15362" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15617" width="9" style="105"/>
-    <col min="15618" max="15618" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15873" width="9" style="105"/>
-    <col min="15874" max="15874" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="15876" max="16129" width="9" style="105"/>
-    <col min="16130" max="16130" width="15.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="11.625" style="105" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16384" width="9" style="105"/>
+    <col min="1" max="1" width="9" style="97"/>
+    <col min="2" max="2" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="257" width="9" style="97"/>
+    <col min="258" max="258" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="260" max="513" width="9" style="97"/>
+    <col min="514" max="514" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="516" max="769" width="9" style="97"/>
+    <col min="770" max="770" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="772" max="1025" width="9" style="97"/>
+    <col min="1026" max="1026" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1281" width="9" style="97"/>
+    <col min="1282" max="1282" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1537" width="9" style="97"/>
+    <col min="1538" max="1538" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1793" width="9" style="97"/>
+    <col min="1794" max="1794" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="1796" max="2049" width="9" style="97"/>
+    <col min="2050" max="2050" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2305" width="9" style="97"/>
+    <col min="2306" max="2306" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2561" width="9" style="97"/>
+    <col min="2562" max="2562" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2817" width="9" style="97"/>
+    <col min="2818" max="2818" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="2820" max="3073" width="9" style="97"/>
+    <col min="3074" max="3074" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3329" width="9" style="97"/>
+    <col min="3330" max="3330" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3585" width="9" style="97"/>
+    <col min="3586" max="3586" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3841" width="9" style="97"/>
+    <col min="3842" max="3842" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="3844" max="4097" width="9" style="97"/>
+    <col min="4098" max="4098" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4353" width="9" style="97"/>
+    <col min="4354" max="4354" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4609" width="9" style="97"/>
+    <col min="4610" max="4610" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4865" width="9" style="97"/>
+    <col min="4866" max="4866" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="4868" max="5121" width="9" style="97"/>
+    <col min="5122" max="5122" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5377" width="9" style="97"/>
+    <col min="5378" max="5378" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5633" width="9" style="97"/>
+    <col min="5634" max="5634" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5889" width="9" style="97"/>
+    <col min="5890" max="5890" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="5892" max="6145" width="9" style="97"/>
+    <col min="6146" max="6146" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6401" width="9" style="97"/>
+    <col min="6402" max="6402" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6657" width="9" style="97"/>
+    <col min="6658" max="6658" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6913" width="9" style="97"/>
+    <col min="6914" max="6914" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="6916" max="7169" width="9" style="97"/>
+    <col min="7170" max="7170" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7425" width="9" style="97"/>
+    <col min="7426" max="7426" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7681" width="9" style="97"/>
+    <col min="7682" max="7682" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7937" width="9" style="97"/>
+    <col min="7938" max="7938" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="7940" max="8193" width="9" style="97"/>
+    <col min="8194" max="8194" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8449" width="9" style="97"/>
+    <col min="8450" max="8450" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8705" width="9" style="97"/>
+    <col min="8706" max="8706" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8961" width="9" style="97"/>
+    <col min="8962" max="8962" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="8964" max="9217" width="9" style="97"/>
+    <col min="9218" max="9218" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9473" width="9" style="97"/>
+    <col min="9474" max="9474" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9729" width="9" style="97"/>
+    <col min="9730" max="9730" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9985" width="9" style="97"/>
+    <col min="9986" max="9986" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="9988" max="10241" width="9" style="97"/>
+    <col min="10242" max="10242" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10497" width="9" style="97"/>
+    <col min="10498" max="10498" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10753" width="9" style="97"/>
+    <col min="10754" max="10754" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="10756" max="11009" width="9" style="97"/>
+    <col min="11010" max="11010" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11265" width="9" style="97"/>
+    <col min="11266" max="11266" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11521" width="9" style="97"/>
+    <col min="11522" max="11522" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11777" width="9" style="97"/>
+    <col min="11778" max="11778" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="11780" max="12033" width="9" style="97"/>
+    <col min="12034" max="12034" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12289" width="9" style="97"/>
+    <col min="12290" max="12290" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12545" width="9" style="97"/>
+    <col min="12546" max="12546" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12801" width="9" style="97"/>
+    <col min="12802" max="12802" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12804" max="13057" width="9" style="97"/>
+    <col min="13058" max="13058" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13313" width="9" style="97"/>
+    <col min="13314" max="13314" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13569" width="9" style="97"/>
+    <col min="13570" max="13570" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13825" width="9" style="97"/>
+    <col min="13826" max="13826" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="13828" max="14081" width="9" style="97"/>
+    <col min="14082" max="14082" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14337" width="9" style="97"/>
+    <col min="14338" max="14338" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14593" width="9" style="97"/>
+    <col min="14594" max="14594" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14849" width="9" style="97"/>
+    <col min="14850" max="14850" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="14852" max="15105" width="9" style="97"/>
+    <col min="15106" max="15106" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15361" width="9" style="97"/>
+    <col min="15362" max="15362" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15617" width="9" style="97"/>
+    <col min="15618" max="15618" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15873" width="9" style="97"/>
+    <col min="15874" max="15874" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="15876" max="16129" width="9" style="97"/>
+    <col min="16130" max="16130" width="15.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="96" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="97" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="97" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="131"/>
+      <c r="C8" s="121"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="97" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="132">
+      <c r="B12" s="122">
         <v>41935</v>
       </c>
-      <c r="C12" s="132"/>
+      <c r="C12" s="122"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="97" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="131"/>
+      <c r="C16" s="121"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="97" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="133">
+      <c r="B20" s="123">
         <v>41935</v>
       </c>
-      <c r="C20" s="133"/>
+      <c r="C20" s="123"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4867,7 +5081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4876,310 +5090,310 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="105" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="105" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="105" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="106" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="105" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="105" customWidth="1"/>
-    <col min="7" max="8" width="9" style="105"/>
-    <col min="9" max="9" width="11.375" style="105" customWidth="1"/>
-    <col min="10" max="10" width="30" style="105" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="105"/>
+    <col min="1" max="1" width="7.625" style="97" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="97" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="98" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="97" customWidth="1"/>
+    <col min="7" max="8" width="9" style="97"/>
+    <col min="9" max="9" width="11.375" style="97" customWidth="1"/>
+    <col min="10" max="10" width="30" style="97" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="96" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="100" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="100" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="98" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="110">
+      <c r="A4" s="102">
         <v>1</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="112" t="e">
+      <c r="C4" s="104" t="e">
         <f>200/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="110">
+      <c r="A5" s="102">
         <v>2</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="103" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="116" t="e">
+      <c r="C5" s="108" t="e">
         <f>MODE(10,20,30,40)</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="105" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="H5" s="105" t="s">
+      <c r="E5" s="106"/>
+      <c r="F5" s="107"/>
+      <c r="H5" s="97" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="110">
+      <c r="A6" s="102">
         <v>3</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="103" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="116" t="e">
+      <c r="C6" s="108" t="e">
         <f ca="1">HEIKIN(A1:C1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="105" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="115"/>
-      <c r="H6" s="105" t="s">
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="H6" s="97" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="110">
+      <c r="A7" s="102">
         <v>4</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="103" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="116" t="e">
+      <c r="C7" s="108" t="e">
         <f>SUM(A1:A3 C1:C3)</f>
         <v>#NULL!</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="115"/>
-      <c r="H7" s="105" t="s">
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
+      <c r="H7" s="97" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="110">
+      <c r="A8" s="102">
         <v>5</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="116" t="e">
+      <c r="C8" s="108" t="e">
         <f>SMALL(A1:A3,C1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="115"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="110">
+      <c r="A9" s="102">
         <v>6</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="116" t="e">
+      <c r="C9" s="108" t="e">
         <f>INT(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="D9" s="105" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="H9" s="117" t="s">
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
+      <c r="H9" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="117" t="s">
+      <c r="I9" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="J9" s="117" t="s">
+      <c r="J9" s="109" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="110">
+      <c r="A10" s="102">
         <v>7</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="103" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="116" t="e">
+      <c r="C10" s="108" t="e">
         <f>MAX("Dekiru")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="105" t="s">
         <v>266</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="H10" s="114">
+      <c r="E10" s="106"/>
+      <c r="F10" s="107"/>
+      <c r="H10" s="106">
         <v>0</v>
       </c>
-      <c r="I10" s="114" t="e">
+      <c r="I10" s="106" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="J10" s="114" t="s">
+      <c r="J10" s="106" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="110">
+      <c r="A11" s="102">
         <v>8</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
-      <c r="H11" s="114">
+      <c r="B11" s="103"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107"/>
+      <c r="H11" s="106">
         <v>7</v>
       </c>
-      <c r="I11" s="114" t="e">
+      <c r="I11" s="106" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="114" t="s">
+      <c r="J11" s="106" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="110">
+      <c r="A12" s="102">
         <v>9</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
-      <c r="H12" s="114">
+      <c r="B12" s="103"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
+      <c r="H12" s="106">
         <v>15</v>
       </c>
-      <c r="I12" s="114" t="e">
+      <c r="I12" s="106" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="114" t="s">
+      <c r="J12" s="106" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="110">
+      <c r="A13" s="102">
         <v>10</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="H13" s="114">
+      <c r="B13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="H13" s="106">
         <v>23</v>
       </c>
-      <c r="I13" s="114" t="e">
+      <c r="I13" s="106" t="e">
         <v>#REF!</v>
       </c>
-      <c r="J13" s="114" t="s">
+      <c r="J13" s="106" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H14" s="114">
+      <c r="H14" s="106">
         <v>29</v>
       </c>
-      <c r="I14" s="114" t="e">
+      <c r="I14" s="106" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="J14" s="114" t="s">
+      <c r="J14" s="106" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="97" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="114">
+      <c r="H15" s="106">
         <v>36</v>
       </c>
-      <c r="I15" s="114" t="e">
+      <c r="I15" s="106" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J15" s="114" t="s">
+      <c r="J15" s="106" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="114">
+      <c r="H16" s="106">
         <v>42</v>
       </c>
-      <c r="I16" s="114" t="e">
+      <c r="I16" s="106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J16" s="114" t="s">
+      <c r="J16" s="106" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="97" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="97" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H19" s="105" t="s">
+      <c r="H19" s="97" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="105" t="s">
+      <c r="H20" s="97" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="105" t="s">
+      <c r="H21" s="97" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5191,7 +5405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5200,299 +5414,299 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="121" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="121" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="121" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="106" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="121" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="121" customWidth="1"/>
-    <col min="7" max="8" width="9" style="121"/>
-    <col min="9" max="9" width="11.375" style="121" customWidth="1"/>
-    <col min="10" max="10" width="30" style="121" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="121"/>
+    <col min="1" max="1" width="7.625" style="97" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="97" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="98" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="97" customWidth="1"/>
+    <col min="7" max="8" width="9" style="97"/>
+    <col min="9" max="9" width="11.375" style="97" customWidth="1"/>
+    <col min="10" max="10" width="30" style="97" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="97" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="100" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="100" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="98" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="110">
+      <c r="A4" s="102">
         <v>1</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="112" t="e">
+      <c r="C4" s="104" t="e">
         <f>200/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="110">
+      <c r="A5" s="102">
         <v>2</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="103" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="116" t="e">
+      <c r="C5" s="108" t="e">
         <f>MODE(10,20,30,40)</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="H5" s="121" t="s">
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="107"/>
+      <c r="H5" s="97" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="110">
+      <c r="A6" s="102">
         <v>3</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="103" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="116" t="e">
+      <c r="C6" s="108" t="e">
         <f ca="1">HEIKIN(A1:C1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="115"/>
-      <c r="H6" s="121" t="s">
+      <c r="D6" s="105"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="H6" s="97" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="110">
+      <c r="A7" s="102">
         <v>4</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="103" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="116" t="e">
+      <c r="C7" s="108" t="e">
         <f>SUM(A1:A3 C1:C3)</f>
         <v>#NULL!</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="115"/>
-      <c r="H7" s="121" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
+      <c r="H7" s="97" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="110">
+      <c r="A8" s="102">
         <v>5</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="116" t="e">
+      <c r="C8" s="108" t="e">
         <f>SMALL(A1:A3,C1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="115"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="110">
+      <c r="A9" s="102">
         <v>6</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="116" t="e">
+      <c r="C9" s="108" t="e">
         <f>INT(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="H9" s="117" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
+      <c r="H9" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="117" t="s">
+      <c r="I9" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="J9" s="117" t="s">
+      <c r="J9" s="109" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="110">
+      <c r="A10" s="102">
         <v>7</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="103" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="116" t="e">
+      <c r="C10" s="108" t="e">
         <f>MAX("Dekiru")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="H10" s="114">
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="107"/>
+      <c r="H10" s="106">
         <v>0</v>
       </c>
-      <c r="I10" s="114" t="e">
+      <c r="I10" s="106" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="J10" s="114" t="s">
+      <c r="J10" s="106" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="110">
+      <c r="A11" s="102">
         <v>8</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
-      <c r="H11" s="114">
+      <c r="B11" s="103"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107"/>
+      <c r="H11" s="106">
         <v>7</v>
       </c>
-      <c r="I11" s="114" t="e">
+      <c r="I11" s="106" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="114" t="s">
+      <c r="J11" s="106" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="110">
+      <c r="A12" s="102">
         <v>9</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
-      <c r="H12" s="114">
+      <c r="B12" s="103"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
+      <c r="H12" s="106">
         <v>15</v>
       </c>
-      <c r="I12" s="114" t="e">
+      <c r="I12" s="106" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="114" t="s">
+      <c r="J12" s="106" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="110">
+      <c r="A13" s="102">
         <v>10</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="H13" s="114">
+      <c r="B13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="H13" s="106">
         <v>23</v>
       </c>
-      <c r="I13" s="114" t="e">
+      <c r="I13" s="106" t="e">
         <v>#REF!</v>
       </c>
-      <c r="J13" s="114" t="s">
+      <c r="J13" s="106" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H14" s="114">
+      <c r="H14" s="106">
         <v>29</v>
       </c>
-      <c r="I14" s="114" t="e">
+      <c r="I14" s="106" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="J14" s="114" t="s">
+      <c r="J14" s="106" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="97" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="114">
+      <c r="H15" s="106">
         <v>36</v>
       </c>
-      <c r="I15" s="114" t="e">
+      <c r="I15" s="106" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J15" s="114" t="s">
+      <c r="J15" s="106" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="114">
+      <c r="H16" s="106">
         <v>42</v>
       </c>
-      <c r="I16" s="114" t="e">
+      <c r="I16" s="106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J16" s="114" t="s">
+      <c r="J16" s="106" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="97" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="97" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H19" s="121" t="s">
+      <c r="H19" s="97" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="121" t="s">
+      <c r="H20" s="97" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="121" t="s">
+      <c r="H21" s="97" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5504,7 +5718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5517,7 +5731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5530,7 +5744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5543,7 +5757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5585,7 +5799,6 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
@@ -5595,8 +5808,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="47"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
@@ -5606,7 +5819,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="37"/>
       <c r="H5" t="s">
         <v>4</v>
       </c>
@@ -5622,7 +5835,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="37"/>
       <c r="H6">
         <v>1</v>
       </c>
@@ -5636,7 +5849,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
       <c r="H7">
         <v>100</v>
       </c>
@@ -5647,7 +5860,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="37"/>
       <c r="H8">
         <v>1000</v>
       </c>
@@ -5658,7 +5871,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
@@ -5666,7 +5879,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
@@ -5674,7 +5887,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
@@ -5682,7 +5895,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5692,7 +5905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5704,7 +5917,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="53" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="46" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="26.875" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
@@ -5726,7 +5939,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5735,7 +5948,6 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
@@ -5744,17 +5956,17 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="54">
         <v>123.456</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="50" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
@@ -5763,17 +5975,17 @@
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="54">
         <v>-123.456</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="49"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
@@ -5782,17 +5994,17 @@
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="54">
         <v>0</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="50" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="49"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
@@ -5801,17 +6013,17 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="59">
         <v>123.456</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="50" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="49"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
@@ -5820,17 +6032,17 @@
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="59">
         <v>-123.456</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="50" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
@@ -5839,17 +6051,17 @@
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="59">
         <v>0</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="50" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
@@ -5858,17 +6070,17 @@
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="55">
         <v>123456789.012345</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="50" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
@@ -5877,17 +6089,17 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="55">
         <v>-123456789.012345</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="50" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="49"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
@@ -5896,17 +6108,17 @@
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="56">
         <v>123.45789000000001</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="50" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
@@ -5915,17 +6127,17 @@
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="56">
         <v>-123.45789000000001</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="50" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="49"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
@@ -5934,17 +6146,17 @@
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="57">
         <v>12345789.012344999</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="50" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
@@ -5953,17 +6165,17 @@
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="57">
         <v>-12345789.012344999</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
@@ -5972,17 +6184,17 @@
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="58">
         <v>12345789.012344999</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="49"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
@@ -5991,14 +6203,14 @@
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="58">
         <v>-12345789.012344999</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6009,14 +6221,14 @@
       <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="60">
         <v>99.9</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="50" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="37" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6027,17 +6239,17 @@
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="60">
         <v>100</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="50" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="49"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
@@ -6046,17 +6258,17 @@
       <c r="B20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="60">
         <v>100.1</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="49"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
@@ -6065,17 +6277,17 @@
       <c r="B21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="63">
         <v>99</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="50" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
@@ -6084,17 +6296,17 @@
       <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="63">
         <v>100</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="50" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="49"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
@@ -6103,17 +6315,17 @@
       <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="61">
         <v>99</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="50" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
@@ -6122,17 +6334,17 @@
       <c r="B24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="61">
         <v>100</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="50" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="49"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
@@ -6141,17 +6353,17 @@
       <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="62">
         <v>100</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="50" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="49"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
@@ -6160,83 +6372,83 @@
       <c r="B26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="62">
         <v>100.1</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="50" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="49"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="49"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="55"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="49"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="47"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>26</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="55"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="49"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>27</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="49"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>28</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="49"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="47"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>29</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="55"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="49"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
@@ -6244,10 +6456,10 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="55"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="49"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6258,7 +6470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6270,10 +6482,10 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="53" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="46" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.875" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="51" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -6291,7 +6503,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -6300,7 +6512,6 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
@@ -6308,10 +6519,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
@@ -6319,10 +6530,10 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="55"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="52"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
@@ -6330,10 +6541,10 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="55"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
@@ -6341,10 +6552,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="55"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="52"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
@@ -6352,10 +6563,10 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="55"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="52"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
@@ -6363,10 +6574,10 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="52"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
@@ -6374,10 +6585,10 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="55"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="52"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
@@ -6385,10 +6596,9 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="38"/>
-      <c r="G11"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
@@ -6396,10 +6606,9 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="55"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="38"/>
-      <c r="G12"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
@@ -6407,10 +6616,10 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="55"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="52"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
@@ -6418,10 +6627,10 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="55"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="52"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
@@ -6429,10 +6638,10 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="55"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="52"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
@@ -6440,10 +6649,10 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="55"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="52"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
@@ -6451,10 +6660,10 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="55"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="52"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
@@ -6462,10 +6671,10 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="52"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
@@ -6473,10 +6682,10 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="55"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="52"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
@@ -6484,10 +6693,10 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="55"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="52"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
@@ -6495,43 +6704,40 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="55"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="52"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="48"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="55"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="48"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>21</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="55"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="48"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
@@ -6539,10 +6745,9 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="38"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="48"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
@@ -6550,10 +6755,9 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="38"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="48"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
@@ -6561,10 +6765,9 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="38"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="48"/>
+      <c r="F27" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6575,7 +6778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6622,10 +6825,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
       <c r="G4" t="s">
         <v>11</v>
       </c>
@@ -6635,10 +6838,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
@@ -6646,9 +6849,9 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="55"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
@@ -6656,9 +6859,9 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="55"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
@@ -6666,19 +6869,19 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="55"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="55"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
@@ -6686,9 +6889,9 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="55"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
@@ -6696,9 +6899,9 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
@@ -6706,9 +6909,9 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="55"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
@@ -6718,15 +6921,15 @@
       <c r="C13" s="23"/>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D15" s="6" t="str">
         <f>"\"&amp;CHAR(9)&amp;CHAR(9)&amp;"12,345"</f>
         <v>\		12,345</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6737,11 +6940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6749,7 +6952,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="53" customWidth="1"/>
+    <col min="4" max="4" width="26" style="46" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -6774,7 +6977,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -6794,11 +6997,11 @@
       <c r="C4" s="24">
         <v>40968.081944444442</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="50" t="s">
         <v>114</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6812,11 +7015,11 @@
       <c r="C5" s="24">
         <v>40968.873622685183</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>115</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6827,14 +7030,14 @@
       <c r="B6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="70">
         <v>40968.081944444442</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="50" t="s">
         <v>116</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6845,14 +7048,14 @@
       <c r="B7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="70">
         <v>40968.873622685183</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="50" t="s">
         <v>117</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6863,14 +7066,14 @@
       <c r="B8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="71">
         <v>40968.081944444442</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="50" t="s">
         <v>106</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6881,14 +7084,14 @@
       <c r="B9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="71">
         <v>40968.873622685183</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="50" t="s">
         <v>107</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6899,14 +7102,14 @@
       <c r="B10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="72">
         <v>40968.081944444442</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="50" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6917,14 +7120,14 @@
       <c r="B11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="72">
         <v>40968.873622685183</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="50" t="s">
         <v>109</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6935,14 +7138,14 @@
       <c r="B12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="73">
         <v>40968.081944444442</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="50" t="s">
         <v>118</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="37" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6953,14 +7156,14 @@
       <c r="B13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="73">
         <v>40968.873622685183</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="50" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="37" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6971,14 +7174,14 @@
       <c r="B14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="74">
         <v>40968.081944444442</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="50" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="37" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6989,14 +7192,14 @@
       <c r="B15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="74">
         <v>40968.873622685183</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="50" t="s">
         <v>111</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="37" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7007,14 +7210,14 @@
       <c r="B16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="75">
         <v>40968.081944444442</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7025,14 +7228,14 @@
       <c r="B17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="80">
+      <c r="C17" s="75">
         <v>40968.873622685183</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="50" t="s">
         <v>113</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7043,14 +7246,14 @@
       <c r="B18" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="76">
         <v>42064</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="50" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="37" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7061,14 +7264,14 @@
       <c r="B19" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="76">
         <v>42065</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="50" t="s">
         <v>127</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="37" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7079,14 +7282,14 @@
       <c r="B20" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="76">
         <v>42066</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="50" t="s">
         <v>128</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="37" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7097,14 +7300,14 @@
       <c r="B21" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="76">
         <v>42067</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="50" t="s">
         <v>129</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="37" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7115,14 +7318,14 @@
       <c r="B22" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="76">
         <v>42068</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="50" t="s">
         <v>130</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="37" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7133,14 +7336,14 @@
       <c r="B23" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="76">
         <v>42069</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="50" t="s">
         <v>131</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="37" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7151,14 +7354,14 @@
       <c r="B24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="76">
         <v>42070</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="50" t="s">
         <v>132</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="37" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7169,14 +7372,14 @@
       <c r="B25" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="82">
+      <c r="C25" s="77">
         <v>42064</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="50" t="s">
         <v>133</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="37" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7187,14 +7390,14 @@
       <c r="B26" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="82">
+      <c r="C26" s="77">
         <v>42065</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="50" t="s">
         <v>134</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="37" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7205,14 +7408,14 @@
       <c r="B27" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="77">
         <v>42066</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="50" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="37" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7223,14 +7426,14 @@
       <c r="B28" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="77">
         <v>42067</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="50" t="s">
         <v>136</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="37" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7241,14 +7444,14 @@
       <c r="B29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="77">
         <v>42068</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="50" t="s">
         <v>137</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="37" t="s">
         <v>141</v>
       </c>
       <c r="H29" t="s">
@@ -7262,14 +7465,14 @@
       <c r="B30" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="82">
+      <c r="C30" s="77">
         <v>42069</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="50" t="s">
         <v>138</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="37" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7280,14 +7483,14 @@
       <c r="B31" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="82">
+      <c r="C31" s="77">
         <v>42070</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="50" t="s">
         <v>139</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="37" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7298,14 +7501,14 @@
       <c r="B32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="79">
         <v>42064</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="50" t="s">
         <v>146</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="37" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7316,14 +7519,14 @@
       <c r="B33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="79">
         <v>42065</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="50" t="s">
         <v>147</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="37" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7334,14 +7537,14 @@
       <c r="B34" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="84">
+      <c r="C34" s="79">
         <v>42066</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="50" t="s">
         <v>148</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="37" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7352,14 +7555,14 @@
       <c r="B35" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="79">
         <v>42067</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="50" t="s">
         <v>149</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="37" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7370,14 +7573,14 @@
       <c r="B36" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="79">
         <v>42068</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="50" t="s">
         <v>150</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="37" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7388,14 +7591,14 @@
       <c r="B37" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="84">
+      <c r="C37" s="79">
         <v>42069</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="50" t="s">
         <v>151</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="37" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7406,14 +7609,14 @@
       <c r="B38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="84">
+      <c r="C38" s="79">
         <v>42070</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="50" t="s">
         <v>152</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="37" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7424,14 +7627,14 @@
       <c r="B39" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="83">
+      <c r="C39" s="78">
         <v>42064</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="50" t="s">
         <v>153</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7442,14 +7645,14 @@
       <c r="B40" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="83">
+      <c r="C40" s="78">
         <v>42065</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="50" t="s">
         <v>154</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7460,14 +7663,14 @@
       <c r="B41" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="83">
+      <c r="C41" s="78">
         <v>42066</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="50" t="s">
         <v>155</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7478,14 +7681,14 @@
       <c r="B42" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="83">
+      <c r="C42" s="78">
         <v>42067</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="50" t="s">
         <v>156</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7496,14 +7699,14 @@
       <c r="B43" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="83">
+      <c r="C43" s="78">
         <v>42068</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="50" t="s">
         <v>157</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7514,14 +7717,14 @@
       <c r="B44" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="83">
+      <c r="C44" s="78">
         <v>42069</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="50" t="s">
         <v>158</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7532,14 +7735,14 @@
       <c r="B45" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="83">
+      <c r="C45" s="78">
         <v>42070</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="50" t="s">
         <v>159</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7550,14 +7753,14 @@
       <c r="B46" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="85">
+      <c r="C46" s="80">
         <v>42070</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="50" t="s">
         <v>164</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="38" t="s">
+      <c r="F46" s="37" t="s">
         <v>166</v>
       </c>
     </row>
@@ -7568,14 +7771,14 @@
       <c r="B47" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="86">
+      <c r="C47" s="81">
         <v>42070</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="50" t="s">
         <v>165</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="37" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7586,14 +7789,14 @@
       <c r="B48" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="87">
+      <c r="C48" s="82">
         <v>0</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="38" t="s">
+      <c r="F48" s="37" t="s">
         <v>169</v>
       </c>
       <c r="G48" t="s">
@@ -7607,14 +7810,14 @@
       <c r="B49" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="87">
+      <c r="C49" s="82">
         <v>1</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="38" t="s">
+      <c r="F49" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7625,14 +7828,14 @@
       <c r="B50" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="87">
+      <c r="C50" s="82">
         <v>60</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="38" t="s">
+      <c r="F50" s="37" t="s">
         <v>169</v>
       </c>
       <c r="G50" t="s">
@@ -7646,14 +7849,14 @@
       <c r="B51" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="87">
+      <c r="C51" s="82">
         <v>61</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="38" t="s">
+      <c r="F51" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7664,14 +7867,14 @@
       <c r="B52" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="87">
+      <c r="C52" s="82">
         <v>1462</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>314</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="38" t="s">
+      <c r="F52" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7682,14 +7885,14 @@
       <c r="B53" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="87">
+      <c r="C53" s="82">
         <v>1521</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>315</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7700,14 +7903,14 @@
       <c r="B54" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="82">
         <v>4594.9999884259259</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>177</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="38" t="s">
+      <c r="F54" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7718,14 +7921,14 @@
       <c r="B55" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="87">
+      <c r="C55" s="82">
         <v>4595</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="38" t="s">
+      <c r="F55" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7736,14 +7939,14 @@
       <c r="B56" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="87">
+      <c r="C56" s="82">
         <v>9855.999988425925</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>179</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="38" t="s">
+      <c r="F56" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7754,14 +7957,14 @@
       <c r="B57" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="87">
+      <c r="C57" s="82">
         <v>9856</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>180</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="38" t="s">
+      <c r="F57" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7772,14 +7975,14 @@
       <c r="B58" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="87">
+      <c r="C58" s="82">
         <v>32515.999988425927</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>181</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="38" t="s">
+      <c r="F58" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7790,14 +7993,14 @@
       <c r="B59" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="87">
+      <c r="C59" s="82">
         <v>32516</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="50" t="s">
         <v>182</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="38" t="s">
+      <c r="F59" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7806,20 +8009,17 @@
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="88">
-        <v>32516</v>
-      </c>
-      <c r="D60" s="55" t="s">
-        <v>183</v>
+        <v>168</v>
+      </c>
+      <c r="C60" s="82">
+        <v>43585.999988425923</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>323</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G60" t="s">
-        <v>199</v>
+      <c r="F60" s="37" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -7827,17 +8027,17 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="89">
-        <v>0</v>
-      </c>
-      <c r="D61" s="55" t="s">
-        <v>200</v>
+        <v>168</v>
+      </c>
+      <c r="C61" s="82">
+        <v>43586</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="38" t="s">
-        <v>171</v>
+      <c r="F61" s="37" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -7845,17 +8045,20 @@
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="89">
-        <v>1</v>
-      </c>
-      <c r="D62" s="55" t="s">
-        <v>184</v>
+        <v>170</v>
+      </c>
+      <c r="C62" s="83">
+        <v>32516</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>183</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="38" t="s">
-        <v>171</v>
+      <c r="F62" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -7865,18 +8068,15 @@
       <c r="B63" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="89">
-        <v>60</v>
-      </c>
-      <c r="D63" s="55" t="s">
-        <v>313</v>
+      <c r="C63" s="84">
+        <v>0</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>200</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="38" t="s">
+      <c r="F63" s="37" t="s">
         <v>171</v>
-      </c>
-      <c r="G63" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -7886,18 +8086,15 @@
       <c r="B64" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="89">
-        <v>61</v>
-      </c>
-      <c r="D64" s="55" t="s">
-        <v>313</v>
+      <c r="C64" s="84">
+        <v>1</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>184</v>
       </c>
       <c r="E64" s="2"/>
-      <c r="F64" s="38" t="s">
+      <c r="F64" s="37" t="s">
         <v>171</v>
-      </c>
-      <c r="G64" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -7907,15 +8104,18 @@
       <c r="B65" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="89">
-        <v>1462</v>
-      </c>
-      <c r="D65" s="55" t="s">
-        <v>316</v>
+      <c r="C65" s="84">
+        <v>60</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>313</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="38" t="s">
+      <c r="F65" s="37" t="s">
         <v>171</v>
+      </c>
+      <c r="G65" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -7925,15 +8125,18 @@
       <c r="B66" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C66" s="89">
-        <v>1521</v>
-      </c>
-      <c r="D66" s="55" t="s">
-        <v>317</v>
+      <c r="C66" s="84">
+        <v>61</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>313</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="38" t="s">
+      <c r="F66" s="37" t="s">
         <v>171</v>
+      </c>
+      <c r="G66" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -7943,14 +8146,14 @@
       <c r="B67" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="89">
-        <v>4594.9999884259259</v>
-      </c>
-      <c r="D67" s="55" t="s">
-        <v>185</v>
+      <c r="C67" s="84">
+        <v>1462</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>316</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="38" t="s">
+      <c r="F67" s="37" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7961,14 +8164,14 @@
       <c r="B68" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C68" s="89">
-        <v>4595</v>
-      </c>
-      <c r="D68" s="55" t="s">
-        <v>186</v>
+      <c r="C68" s="84">
+        <v>1521</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>317</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="38" t="s">
+      <c r="F68" s="37" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7979,14 +8182,14 @@
       <c r="B69" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C69" s="89">
-        <v>9855.999988425925</v>
-      </c>
-      <c r="D69" s="55" t="s">
-        <v>187</v>
+      <c r="C69" s="84">
+        <v>4594.9999884259259</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>185</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="38" t="s">
+      <c r="F69" s="37" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7997,14 +8200,14 @@
       <c r="B70" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="89">
-        <v>9856</v>
-      </c>
-      <c r="D70" s="55" t="s">
-        <v>188</v>
+      <c r="C70" s="84">
+        <v>4595</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>186</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="38" t="s">
+      <c r="F70" s="37" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8015,14 +8218,14 @@
       <c r="B71" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C71" s="89">
-        <v>32515.999988425927</v>
-      </c>
-      <c r="D71" s="55" t="s">
-        <v>189</v>
+      <c r="C71" s="84">
+        <v>9855.999988425925</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>187</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="38" t="s">
+      <c r="F71" s="37" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8033,14 +8236,14 @@
       <c r="B72" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="89">
-        <v>32516</v>
-      </c>
-      <c r="D72" s="55" t="s">
-        <v>190</v>
+      <c r="C72" s="84">
+        <v>9856</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>188</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="38" t="s">
+      <c r="F72" s="37" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8049,20 +8252,17 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="91">
-        <v>0</v>
-      </c>
-      <c r="D73" s="55" t="s">
-        <v>201</v>
+        <v>173</v>
+      </c>
+      <c r="C73" s="84">
+        <v>32515.999988425927</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>189</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="G73" t="s">
-        <v>199</v>
+      <c r="F73" s="37" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -8070,17 +8270,17 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" s="90">
-        <v>1</v>
-      </c>
-      <c r="D74" s="55" t="s">
-        <v>191</v>
+        <v>173</v>
+      </c>
+      <c r="C74" s="84">
+        <v>32516</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>190</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="38" t="s">
-        <v>175</v>
+      <c r="F74" s="37" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -8088,17 +8288,17 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" s="90">
-        <v>60</v>
-      </c>
-      <c r="D75" s="55" t="s">
-        <v>321</v>
+        <v>173</v>
+      </c>
+      <c r="C75" s="84">
+        <v>43585.999988425923</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>325</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="38" t="s">
-        <v>175</v>
+      <c r="F75" s="37" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -8106,17 +8306,17 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C76" s="90">
-        <v>61</v>
-      </c>
-      <c r="D76" s="55" t="s">
-        <v>318</v>
+        <v>173</v>
+      </c>
+      <c r="C76" s="84">
+        <v>43586</v>
+      </c>
+      <c r="D76" s="50" t="s">
+        <v>329</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="38" t="s">
-        <v>175</v>
+      <c r="F76" s="37" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -8126,15 +8326,18 @@
       <c r="B77" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C77" s="90">
-        <v>1462</v>
-      </c>
-      <c r="D77" s="55" t="s">
-        <v>319</v>
+      <c r="C77" s="86">
+        <v>0</v>
+      </c>
+      <c r="D77" s="50" t="s">
+        <v>201</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="38" t="s">
+      <c r="F77" s="37" t="s">
         <v>175</v>
+      </c>
+      <c r="G77" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -8144,14 +8347,14 @@
       <c r="B78" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="90">
-        <v>1521</v>
-      </c>
-      <c r="D78" s="55" t="s">
-        <v>320</v>
+      <c r="C78" s="85">
+        <v>1</v>
+      </c>
+      <c r="D78" s="50" t="s">
+        <v>191</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="38" t="s">
+      <c r="F78" s="37" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8162,14 +8365,14 @@
       <c r="B79" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C79" s="90">
-        <v>4594.9999884259259</v>
-      </c>
-      <c r="D79" s="55" t="s">
-        <v>192</v>
+      <c r="C79" s="85">
+        <v>60</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>321</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="38" t="s">
+      <c r="F79" s="37" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8180,14 +8383,14 @@
       <c r="B80" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C80" s="90">
-        <v>4595</v>
-      </c>
-      <c r="D80" s="55" t="s">
-        <v>193</v>
+      <c r="C80" s="85">
+        <v>61</v>
+      </c>
+      <c r="D80" s="50" t="s">
+        <v>318</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="38" t="s">
+      <c r="F80" s="37" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8198,14 +8401,14 @@
       <c r="B81" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="90">
-        <v>9855.999988425925</v>
-      </c>
-      <c r="D81" s="55" t="s">
-        <v>194</v>
+      <c r="C81" s="85">
+        <v>1462</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>319</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="38" t="s">
+      <c r="F81" s="37" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8216,14 +8419,14 @@
       <c r="B82" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="90">
-        <v>9856</v>
-      </c>
-      <c r="D82" s="55" t="s">
-        <v>195</v>
+      <c r="C82" s="85">
+        <v>1521</v>
+      </c>
+      <c r="D82" s="50" t="s">
+        <v>320</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="38" t="s">
+      <c r="F82" s="37" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8234,14 +8437,14 @@
       <c r="B83" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="90">
-        <v>32515.999988425927</v>
-      </c>
-      <c r="D83" s="55" t="s">
-        <v>196</v>
+      <c r="C83" s="85">
+        <v>4594.9999884259259</v>
+      </c>
+      <c r="D83" s="50" t="s">
+        <v>192</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="38" t="s">
+      <c r="F83" s="37" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8252,14 +8455,14 @@
       <c r="B84" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C84" s="90">
-        <v>32516</v>
-      </c>
-      <c r="D84" s="55" t="s">
-        <v>197</v>
+      <c r="C84" s="85">
+        <v>4595</v>
+      </c>
+      <c r="D84" s="50" t="s">
+        <v>193</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="F84" s="38" t="s">
+      <c r="F84" s="37" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8268,17 +8471,17 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="92">
-        <v>21894.999988425927</v>
-      </c>
-      <c r="D85" s="55" t="s">
-        <v>205</v>
+        <v>174</v>
+      </c>
+      <c r="C85" s="85">
+        <v>9855.999988425925</v>
+      </c>
+      <c r="D85" s="50" t="s">
+        <v>194</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="38" t="s">
-        <v>210</v>
+      <c r="F85" s="37" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -8286,17 +8489,17 @@
         <v>83</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C86" s="92">
-        <v>32518</v>
-      </c>
-      <c r="D86" s="55" t="s">
-        <v>206</v>
+        <v>174</v>
+      </c>
+      <c r="C86" s="85">
+        <v>9856</v>
+      </c>
+      <c r="D86" s="50" t="s">
+        <v>195</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="38" t="s">
-        <v>210</v>
+      <c r="F86" s="37" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -8304,17 +8507,17 @@
         <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C87" s="93">
-        <v>21894.999988425927</v>
-      </c>
-      <c r="D87" s="55" t="s">
-        <v>214</v>
+        <v>174</v>
+      </c>
+      <c r="C87" s="85">
+        <v>32515.999988425927</v>
+      </c>
+      <c r="D87" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="38" t="s">
-        <v>211</v>
+      <c r="F87" s="37" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -8322,17 +8525,17 @@
         <v>85</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C88" s="93">
-        <v>32518</v>
-      </c>
-      <c r="D88" s="55" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="C88" s="85">
+        <v>32516</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>197</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="38" t="s">
-        <v>211</v>
+      <c r="F88" s="37" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -8340,17 +8543,17 @@
         <v>86</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" s="94">
+        <v>202</v>
+      </c>
+      <c r="C89" s="87">
         <v>21894.999988425927</v>
       </c>
-      <c r="D89" s="55" t="s">
-        <v>208</v>
+      <c r="D89" s="50" t="s">
+        <v>205</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="38" t="s">
-        <v>212</v>
+      <c r="F89" s="37" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -8358,17 +8561,17 @@
         <v>87</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C90" s="94">
+        <v>202</v>
+      </c>
+      <c r="C90" s="87">
         <v>32518</v>
       </c>
-      <c r="D90" s="55" t="s">
-        <v>209</v>
+      <c r="D90" s="50" t="s">
+        <v>206</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="F90" s="38" t="s">
-        <v>213</v>
+      <c r="F90" s="37" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -8376,17 +8579,17 @@
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C91" s="122">
-        <v>42070</v>
-      </c>
-      <c r="D91" s="55" t="s">
-        <v>159</v>
+        <v>202</v>
+      </c>
+      <c r="C91" s="87">
+        <v>44058</v>
+      </c>
+      <c r="D91" s="50" t="s">
+        <v>326</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="38" t="s">
-        <v>290</v>
+      <c r="F91" s="37" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -8394,88 +8597,144 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C92" s="123">
-        <v>42070</v>
-      </c>
-      <c r="D92" s="55" t="s">
-        <v>159</v>
+        <v>203</v>
+      </c>
+      <c r="C92" s="88">
+        <v>21894.999988425927</v>
+      </c>
+      <c r="D92" s="50" t="s">
+        <v>214</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92" s="38" t="s">
-        <v>291</v>
+      <c r="F92" s="37" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>90</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="55"/>
+      <c r="B93" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" s="88">
+        <v>32518</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>207</v>
+      </c>
       <c r="E93" s="2"/>
-      <c r="F93" s="38"/>
+      <c r="F93" s="37" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>91</v>
       </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="55"/>
+      <c r="B94" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="88">
+        <v>44058</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>327</v>
+      </c>
       <c r="E94" s="2"/>
-      <c r="F94" s="38"/>
+      <c r="F94" s="37" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>92</v>
       </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="55"/>
+      <c r="B95" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="89">
+        <v>21894.999988425927</v>
+      </c>
+      <c r="D95" s="50" t="s">
+        <v>208</v>
+      </c>
       <c r="E95" s="2"/>
-      <c r="F95" s="38"/>
+      <c r="F95" s="37" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>93</v>
       </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="55"/>
+      <c r="B96" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="89">
+        <v>32518</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>209</v>
+      </c>
       <c r="E96" s="2"/>
-      <c r="F96" s="38"/>
+      <c r="F96" s="37" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>94</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="55"/>
+      <c r="B97" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="89">
+        <v>43586</v>
+      </c>
+      <c r="D97" s="50" t="s">
+        <v>328</v>
+      </c>
       <c r="E97" s="2"/>
-      <c r="F97" s="38"/>
+      <c r="F97" s="37" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>95</v>
       </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="55"/>
+      <c r="B98" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="112">
+        <v>42070</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>159</v>
+      </c>
       <c r="E98" s="2"/>
-      <c r="F98" s="38"/>
+      <c r="F98" s="37" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>96</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="55"/>
+      <c r="B99" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C99" s="113">
+        <v>42070</v>
+      </c>
+      <c r="D99" s="50" t="s">
+        <v>159</v>
+      </c>
       <c r="E99" s="2"/>
-      <c r="F99" s="38"/>
+      <c r="F99" s="37" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
@@ -8483,9 +8742,79 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="26"/>
-      <c r="D100" s="55"/>
+      <c r="D100" s="50"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="38"/>
+      <c r="F100" s="37"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="5">
+        <v>98</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="37"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="5">
+        <v>99</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="37"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="5">
+        <v>100</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="37"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="5">
+        <v>101</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="37"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="5">
+        <v>102</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="37"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="5">
+        <v>103</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="37"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="5">
+        <v>104</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8496,7 +8825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8508,7 +8837,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="46" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -8533,7 +8862,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -8550,14 +8879,14 @@
       <c r="B4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="64">
         <v>0.37722222222222218</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="50" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
@@ -8566,14 +8895,14 @@
       <c r="B5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="64">
         <v>1.0855555555555556</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
@@ -8582,14 +8911,14 @@
       <c r="B6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="65">
         <v>0.37722222222222218</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="50" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
@@ -8598,14 +8927,14 @@
       <c r="B7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="65">
         <v>1.0855555555555556</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="50" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
@@ -8614,14 +8943,14 @@
       <c r="B8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="66">
         <v>2.2222222222222222E-3</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="50" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
@@ -8630,14 +8959,14 @@
       <c r="B9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="66">
         <v>4.5277777777777778E-2</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="50" t="s">
         <v>78</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
@@ -8646,14 +8975,14 @@
       <c r="B10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="67">
         <v>2.2222222222222222E-3</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="50" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
@@ -8662,14 +8991,14 @@
       <c r="B11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="67">
         <v>4.5277777777777778E-2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="50" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
@@ -8678,14 +9007,14 @@
       <c r="B12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="68">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="50" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
@@ -8694,14 +9023,14 @@
       <c r="B13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="68">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="50" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
@@ -8710,14 +9039,14 @@
       <c r="B14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="69">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="50" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="38"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
@@ -8726,14 +9055,14 @@
       <c r="B15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="69">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="50" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="38"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
@@ -8742,16 +9071,16 @@
       <c r="B16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="53">
         <v>40968.542824074073</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="50" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>46</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8762,16 +9091,16 @@
       <c r="B17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="53">
         <v>0</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="50" t="s">
         <v>85</v>
       </c>
       <c r="E17" s="2">
         <v>46</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8782,16 +9111,16 @@
       <c r="B18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="53">
         <v>0.99998842592592585</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="50" t="s">
         <v>86</v>
       </c>
       <c r="E18" s="2">
         <v>46</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8802,16 +9131,16 @@
       <c r="B19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="53">
         <v>1</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="50" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="2">
         <v>46</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8822,16 +9151,16 @@
       <c r="B20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="53">
         <v>1.0416666666666667</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="50" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="2">
         <v>46</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8842,16 +9171,16 @@
       <c r="B21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="53">
         <v>59.999988425925928</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="50" t="s">
         <v>90</v>
       </c>
       <c r="E21" s="2">
         <v>46</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8862,16 +9191,16 @@
       <c r="B22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="53">
         <v>59</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="50" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="2">
         <v>46</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8882,16 +9211,16 @@
       <c r="B23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="53">
         <v>61.999988425925928</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="50" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="2">
         <v>46</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8900,50 +9229,50 @@
         <v>21</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="55"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="38"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>22</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="55"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="38"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>23</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="55"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="38"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="38"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="55"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="38"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
@@ -8951,9 +9280,9 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="55"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="38"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
@@ -8961,9 +9290,9 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="55"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="38"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
@@ -8971,9 +9300,9 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="25"/>
-      <c r="D31" s="55"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="38"/>
+      <c r="F31" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8984,7 +9313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9034,7 +9363,7 @@
       <c r="C4" s="30"/>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
@@ -9044,7 +9373,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
@@ -9054,7 +9383,7 @@
       <c r="C6" s="27"/>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
@@ -9064,7 +9393,7 @@
       <c r="C7" s="28"/>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
@@ -9074,7 +9403,7 @@
       <c r="C8" s="29"/>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9085,7 +9414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9097,7 +9426,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="99" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="46" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
@@ -9117,7 +9446,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -9134,14 +9463,14 @@
       <c r="B4" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="90">
         <v>3.25</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="50" t="s">
         <v>219</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9152,14 +9481,14 @@
       <c r="B5" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="90">
         <v>-3.25</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="50" t="s">
         <v>220</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9170,14 +9499,14 @@
       <c r="B6" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="91">
         <v>3.25</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="50" t="s">
         <v>222</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9188,14 +9517,14 @@
       <c r="B7" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="96">
+      <c r="C7" s="91">
         <v>-3.25</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="50" t="s">
         <v>223</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9206,14 +9535,14 @@
       <c r="B8" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="92">
         <v>3.25</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="50" t="s">
         <v>224</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9224,14 +9553,14 @@
       <c r="B9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="97">
+      <c r="C9" s="92">
         <v>-3.25</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="50" t="s">
         <v>225</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="37" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9242,14 +9571,14 @@
       <c r="B10" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="93">
         <v>3.25</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="50" t="s">
         <v>221</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9260,14 +9589,14 @@
       <c r="B11" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="93">
         <v>-3.25</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="50" t="s">
         <v>226</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="37" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9276,10 +9605,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="101"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
@@ -9287,9 +9616,9 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="101"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
